--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 7_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 7_2020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="380">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1159,6 +1159,12 @@
   </si>
   <si>
     <t>PC00142</t>
+  </si>
+  <si>
+    <t>PC00143</t>
+  </si>
+  <si>
+    <t>PC00144</t>
   </si>
 </sst>
 </file>
@@ -3401,9 +3407,6 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3415,6 +3418,9 @@
     </xf>
     <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3910,8 +3916,8 @@
   <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <pane ySplit="7" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,7 +4015,7 @@
       </c>
       <c r="H6" s="491"/>
     </row>
-    <row r="7" spans="1:9" s="112" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="112" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="488"/>
       <c r="B7" s="499"/>
       <c r="C7" s="488"/>
@@ -4027,7 +4033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="479">
         <v>43986</v>
       </c>
@@ -4051,7 +4057,9 @@
       <c r="A9" s="479">
         <v>43950</v>
       </c>
-      <c r="B9" s="479"/>
+      <c r="B9" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C9" s="480" t="s">
         <v>239</v>
       </c>
@@ -4069,7 +4077,9 @@
       <c r="A10" s="479">
         <v>43976</v>
       </c>
-      <c r="B10" s="479"/>
+      <c r="B10" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C10" s="480" t="s">
         <v>243</v>
       </c>
@@ -4083,7 +4093,7 @@
         <v>1119000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="479">
         <v>43980</v>
       </c>
@@ -4103,7 +4113,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="479">
         <v>43989</v>
       </c>
@@ -4123,7 +4133,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="479">
         <v>44001</v>
       </c>
@@ -4143,7 +4153,7 @@
         <v>113000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="479">
         <v>44013</v>
       </c>
@@ -4167,7 +4177,9 @@
       <c r="A15" s="479">
         <v>44013</v>
       </c>
-      <c r="B15" s="479"/>
+      <c r="B15" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C15" s="480" t="s">
         <v>237</v>
       </c>
@@ -4185,7 +4197,9 @@
       <c r="A16" s="479">
         <v>44014</v>
       </c>
-      <c r="B16" s="479"/>
+      <c r="B16" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C16" s="480" t="s">
         <v>243</v>
       </c>
@@ -4199,7 +4213,7 @@
         <v>257000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="479">
         <v>44014</v>
       </c>
@@ -4223,7 +4237,9 @@
       <c r="A18" s="479">
         <v>44014</v>
       </c>
-      <c r="B18" s="479"/>
+      <c r="B18" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C18" s="480" t="s">
         <v>237</v>
       </c>
@@ -4237,7 +4253,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="479">
         <v>44015</v>
       </c>
@@ -4261,7 +4277,9 @@
       <c r="A20" s="479">
         <v>44016</v>
       </c>
-      <c r="B20" s="479"/>
+      <c r="B20" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C20" s="480" t="s">
         <v>243</v>
       </c>
@@ -4275,7 +4293,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="479">
         <v>44016</v>
       </c>
@@ -4299,7 +4317,9 @@
       <c r="A22" s="479">
         <v>44016</v>
       </c>
-      <c r="B22" s="479"/>
+      <c r="B22" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C22" s="480" t="s">
         <v>237</v>
       </c>
@@ -4313,7 +4333,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="479">
         <v>44017</v>
       </c>
@@ -4333,7 +4353,7 @@
       <c r="G23" s="482"/>
       <c r="H23" s="483"/>
     </row>
-    <row r="24" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="479">
         <v>44017</v>
       </c>
@@ -4357,7 +4377,9 @@
       <c r="A25" s="479">
         <v>44017</v>
       </c>
-      <c r="B25" s="479"/>
+      <c r="B25" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C25" s="480" t="s">
         <v>243</v>
       </c>
@@ -4371,7 +4393,7 @@
         <v>686000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="479">
         <v>44017</v>
       </c>
@@ -4391,7 +4413,7 @@
       </c>
       <c r="H26" s="483"/>
     </row>
-    <row r="27" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="479">
         <v>44017</v>
       </c>
@@ -4415,7 +4437,9 @@
       <c r="A28" s="479">
         <v>44017</v>
       </c>
-      <c r="B28" s="479"/>
+      <c r="B28" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C28" s="480" t="s">
         <v>243</v>
       </c>
@@ -4433,7 +4457,9 @@
       <c r="A29" s="479">
         <v>44017</v>
       </c>
-      <c r="B29" s="479"/>
+      <c r="B29" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C29" s="480" t="s">
         <v>243</v>
       </c>
@@ -4447,7 +4473,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="479">
         <v>44018</v>
       </c>
@@ -4471,7 +4497,9 @@
       <c r="A31" s="479">
         <v>44018</v>
       </c>
-      <c r="B31" s="479"/>
+      <c r="B31" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C31" s="480" t="s">
         <v>243</v>
       </c>
@@ -4485,7 +4513,7 @@
         <v>154770</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="479">
         <v>44019</v>
       </c>
@@ -4505,7 +4533,7 @@
       <c r="G32" s="482"/>
       <c r="H32" s="483"/>
     </row>
-    <row r="33" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="479">
         <v>44020</v>
       </c>
@@ -4525,7 +4553,7 @@
       <c r="G33" s="482"/>
       <c r="H33" s="483"/>
     </row>
-    <row r="34" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="479">
         <v>44020</v>
       </c>
@@ -4545,7 +4573,7 @@
       <c r="G34" s="482"/>
       <c r="H34" s="483"/>
     </row>
-    <row r="35" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="479">
         <v>44020</v>
       </c>
@@ -4569,7 +4597,9 @@
       <c r="A36" s="479">
         <v>44020</v>
       </c>
-      <c r="B36" s="479"/>
+      <c r="B36" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C36" s="480" t="s">
         <v>243</v>
       </c>
@@ -4587,7 +4617,9 @@
       <c r="A37" s="479">
         <v>44020</v>
       </c>
-      <c r="B37" s="479"/>
+      <c r="B37" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C37" s="480" t="s">
         <v>237</v>
       </c>
@@ -4601,7 +4633,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="479">
         <v>44021</v>
       </c>
@@ -4621,7 +4653,7 @@
       <c r="G38" s="482"/>
       <c r="H38" s="483"/>
     </row>
-    <row r="39" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="479">
         <v>44021</v>
       </c>
@@ -4645,7 +4677,9 @@
       <c r="A40" s="479">
         <v>44021</v>
       </c>
-      <c r="B40" s="479"/>
+      <c r="B40" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C40" s="480" t="s">
         <v>239</v>
       </c>
@@ -4663,7 +4697,9 @@
       <c r="A41" s="479">
         <v>44021</v>
       </c>
-      <c r="B41" s="479"/>
+      <c r="B41" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C41" s="480" t="s">
         <v>237</v>
       </c>
@@ -4681,7 +4717,9 @@
       <c r="A42" s="479">
         <v>44021</v>
       </c>
-      <c r="B42" s="479"/>
+      <c r="B42" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C42" s="480" t="s">
         <v>239</v>
       </c>
@@ -4699,7 +4737,9 @@
       <c r="A43" s="479">
         <v>44021</v>
       </c>
-      <c r="B43" s="479"/>
+      <c r="B43" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C43" s="480" t="s">
         <v>239</v>
       </c>
@@ -4713,7 +4753,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="479">
         <v>44021</v>
       </c>
@@ -4733,7 +4773,7 @@
       <c r="G44" s="482"/>
       <c r="H44" s="483"/>
     </row>
-    <row r="45" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="479">
         <v>44022</v>
       </c>
@@ -4757,7 +4797,9 @@
       <c r="A46" s="479">
         <v>44022</v>
       </c>
-      <c r="B46" s="479"/>
+      <c r="B46" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C46" s="480" t="s">
         <v>237</v>
       </c>
@@ -4775,7 +4817,9 @@
       <c r="A47" s="479">
         <v>44022</v>
       </c>
-      <c r="B47" s="479"/>
+      <c r="B47" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C47" s="480" t="s">
         <v>239</v>
       </c>
@@ -4789,7 +4833,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="479">
         <v>44023</v>
       </c>
@@ -4813,7 +4857,9 @@
       <c r="A49" s="479">
         <v>44023</v>
       </c>
-      <c r="B49" s="479"/>
+      <c r="B49" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C49" s="480" t="s">
         <v>243</v>
       </c>
@@ -4831,7 +4877,9 @@
       <c r="A50" s="479">
         <v>44024</v>
       </c>
-      <c r="B50" s="479"/>
+      <c r="B50" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C50" s="480" t="s">
         <v>237</v>
       </c>
@@ -4845,7 +4893,7 @@
         <v>730000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="479">
         <v>44025</v>
       </c>
@@ -4869,7 +4917,9 @@
       <c r="A52" s="479">
         <v>44026</v>
       </c>
-      <c r="B52" s="479"/>
+      <c r="B52" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C52" s="480" t="s">
         <v>243</v>
       </c>
@@ -4883,7 +4933,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="479">
         <v>44026</v>
       </c>
@@ -4903,7 +4953,7 @@
         <v>1395000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="479">
         <v>44026</v>
       </c>
@@ -4923,7 +4973,7 @@
       <c r="G54" s="482"/>
       <c r="H54" s="483"/>
     </row>
-    <row r="55" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="479">
         <v>44026</v>
       </c>
@@ -4947,7 +4997,9 @@
       <c r="A56" s="479">
         <v>44026</v>
       </c>
-      <c r="B56" s="479"/>
+      <c r="B56" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C56" s="480" t="s">
         <v>243</v>
       </c>
@@ -4965,7 +5017,9 @@
       <c r="A57" s="479">
         <v>44026</v>
       </c>
-      <c r="B57" s="479"/>
+      <c r="B57" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C57" s="480" t="s">
         <v>243</v>
       </c>
@@ -4979,7 +5033,7 @@
         <v>2061000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="479">
         <v>44027</v>
       </c>
@@ -5003,7 +5057,9 @@
       <c r="A59" s="479">
         <v>44027</v>
       </c>
-      <c r="B59" s="479"/>
+      <c r="B59" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C59" s="480" t="s">
         <v>239</v>
       </c>
@@ -5017,7 +5073,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="479">
         <v>44027</v>
       </c>
@@ -5041,7 +5097,9 @@
       <c r="A61" s="479">
         <v>44027</v>
       </c>
-      <c r="B61" s="479"/>
+      <c r="B61" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C61" s="480" t="s">
         <v>243</v>
       </c>
@@ -5059,7 +5117,9 @@
       <c r="A62" s="479">
         <v>44027</v>
       </c>
-      <c r="B62" s="479"/>
+      <c r="B62" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C62" s="480" t="s">
         <v>243</v>
       </c>
@@ -5073,7 +5133,7 @@
         <v>6583000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="479">
         <v>44028</v>
       </c>
@@ -5093,7 +5153,7 @@
       <c r="G63" s="482"/>
       <c r="H63" s="483"/>
     </row>
-    <row r="64" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="479">
         <v>44028</v>
       </c>
@@ -5114,7 +5174,7 @@
       </c>
       <c r="H64" s="483"/>
     </row>
-    <row r="65" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="479">
         <v>44028</v>
       </c>
@@ -5134,7 +5194,7 @@
       <c r="G65" s="482"/>
       <c r="H65" s="483"/>
     </row>
-    <row r="66" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="479">
         <v>44028</v>
       </c>
@@ -5154,7 +5214,7 @@
       <c r="G66" s="482"/>
       <c r="H66" s="483"/>
     </row>
-    <row r="67" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="479">
         <v>44028</v>
       </c>
@@ -5174,7 +5234,7 @@
       </c>
       <c r="H67" s="483"/>
     </row>
-    <row r="68" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="479">
         <v>44029</v>
       </c>
@@ -5194,7 +5254,7 @@
       <c r="G68" s="482"/>
       <c r="H68" s="483"/>
     </row>
-    <row r="69" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="479">
         <v>44029</v>
       </c>
@@ -5214,7 +5274,7 @@
       </c>
       <c r="H69" s="483"/>
     </row>
-    <row r="70" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="479">
         <v>44029</v>
       </c>
@@ -5238,7 +5298,9 @@
       <c r="A71" s="479">
         <v>44030</v>
       </c>
-      <c r="B71" s="479"/>
+      <c r="B71" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C71" s="480" t="s">
         <v>239</v>
       </c>
@@ -5252,7 +5314,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="479">
         <v>44031</v>
       </c>
@@ -5276,7 +5338,9 @@
       <c r="A73" s="479">
         <v>44031</v>
       </c>
-      <c r="B73" s="479"/>
+      <c r="B73" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C73" s="480" t="s">
         <v>243</v>
       </c>
@@ -5294,7 +5358,9 @@
       <c r="A74" s="479">
         <v>44031</v>
       </c>
-      <c r="B74" s="479"/>
+      <c r="B74" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C74" s="480" t="s">
         <v>237</v>
       </c>
@@ -5308,7 +5374,7 @@
         <v>513000</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="479">
         <v>44031</v>
       </c>
@@ -5328,7 +5394,7 @@
       </c>
       <c r="H75" s="483"/>
     </row>
-    <row r="76" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="479">
         <v>44031</v>
       </c>
@@ -5352,7 +5418,9 @@
       <c r="A77" s="479">
         <v>44032</v>
       </c>
-      <c r="B77" s="479"/>
+      <c r="B77" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C77" s="480" t="s">
         <v>237</v>
       </c>
@@ -5366,7 +5434,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="479">
         <v>44032</v>
       </c>
@@ -5386,7 +5454,7 @@
       <c r="G78" s="482"/>
       <c r="H78" s="483"/>
     </row>
-    <row r="79" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="479">
         <v>44032</v>
       </c>
@@ -5410,7 +5478,9 @@
       <c r="A80" s="479">
         <v>44032</v>
       </c>
-      <c r="B80" s="479"/>
+      <c r="B80" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C80" s="480" t="s">
         <v>243</v>
       </c>
@@ -5428,7 +5498,9 @@
       <c r="A81" s="479">
         <v>44033</v>
       </c>
-      <c r="B81" s="479"/>
+      <c r="B81" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C81" s="480" t="s">
         <v>243</v>
       </c>
@@ -5446,7 +5518,9 @@
       <c r="A82" s="479">
         <v>44033</v>
       </c>
-      <c r="B82" s="479"/>
+      <c r="B82" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C82" s="480" t="s">
         <v>243</v>
       </c>
@@ -5460,7 +5534,7 @@
         <v>3434000</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="479">
         <v>44033</v>
       </c>
@@ -5484,7 +5558,9 @@
       <c r="A84" s="479">
         <v>44034</v>
       </c>
-      <c r="B84" s="479"/>
+      <c r="B84" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C84" s="480" t="s">
         <v>243</v>
       </c>
@@ -5498,7 +5574,7 @@
         <v>785000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="479">
         <v>44034</v>
       </c>
@@ -5518,7 +5594,7 @@
       </c>
       <c r="H85" s="483"/>
     </row>
-    <row r="86" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="479">
         <v>44035</v>
       </c>
@@ -5538,7 +5614,7 @@
         <v>3640000</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="479">
         <v>44036</v>
       </c>
@@ -5558,7 +5634,7 @@
       </c>
       <c r="H87" s="483"/>
     </row>
-    <row r="88" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="479">
         <v>44036</v>
       </c>
@@ -5578,7 +5654,7 @@
       </c>
       <c r="H88" s="483"/>
     </row>
-    <row r="89" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="479">
         <v>44037</v>
       </c>
@@ -5602,7 +5678,9 @@
       <c r="A90" s="479">
         <v>44038</v>
       </c>
-      <c r="B90" s="479"/>
+      <c r="B90" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C90" s="480" t="s">
         <v>237</v>
       </c>
@@ -5620,7 +5698,9 @@
       <c r="A91" s="479">
         <v>44038</v>
       </c>
-      <c r="B91" s="479"/>
+      <c r="B91" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C91" s="480" t="s">
         <v>237</v>
       </c>
@@ -5638,7 +5718,9 @@
       <c r="A92" s="479">
         <v>44038</v>
       </c>
-      <c r="B92" s="479"/>
+      <c r="B92" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C92" s="480" t="s">
         <v>239</v>
       </c>
@@ -5652,7 +5734,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="479">
         <v>44039</v>
       </c>
@@ -5672,7 +5754,7 @@
       </c>
       <c r="H93" s="483"/>
     </row>
-    <row r="94" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="479">
         <v>44039</v>
       </c>
@@ -5696,7 +5778,9 @@
       <c r="A95" s="479">
         <v>44040</v>
       </c>
-      <c r="B95" s="479"/>
+      <c r="B95" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C95" s="480" t="s">
         <v>237</v>
       </c>
@@ -5710,7 +5794,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="479">
         <v>44040</v>
       </c>
@@ -5730,7 +5814,7 @@
       </c>
       <c r="H96" s="483"/>
     </row>
-    <row r="97" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="479">
         <v>44040</v>
       </c>
@@ -5750,7 +5834,7 @@
       </c>
       <c r="H97" s="483"/>
     </row>
-    <row r="98" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="479">
         <v>44040</v>
       </c>
@@ -5770,7 +5854,7 @@
       <c r="G98" s="482"/>
       <c r="H98" s="483"/>
     </row>
-    <row r="99" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="479">
         <v>44040</v>
       </c>
@@ -5790,7 +5874,7 @@
       <c r="G99" s="482"/>
       <c r="H99" s="483"/>
     </row>
-    <row r="100" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="479">
         <v>44041</v>
       </c>
@@ -5814,7 +5898,9 @@
       <c r="A101" s="479">
         <v>44041</v>
       </c>
-      <c r="B101" s="479"/>
+      <c r="B101" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C101" s="480" t="s">
         <v>237</v>
       </c>
@@ -5832,7 +5918,9 @@
       <c r="A102" s="479">
         <v>44041</v>
       </c>
-      <c r="B102" s="479"/>
+      <c r="B102" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C102" s="480" t="s">
         <v>237</v>
       </c>
@@ -5850,7 +5938,9 @@
       <c r="A103" s="479">
         <v>44041</v>
       </c>
-      <c r="B103" s="479"/>
+      <c r="B103" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C103" s="480" t="s">
         <v>237</v>
       </c>
@@ -5864,7 +5954,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="479">
         <v>44041</v>
       </c>
@@ -5884,7 +5974,7 @@
         <v>148500000</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="479">
         <v>44042</v>
       </c>
@@ -5904,7 +5994,7 @@
       <c r="G105" s="482"/>
       <c r="H105" s="486"/>
     </row>
-    <row r="106" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="479">
         <v>44043</v>
       </c>
@@ -5924,7 +6014,7 @@
       <c r="G106" s="482"/>
       <c r="H106" s="486"/>
     </row>
-    <row r="107" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="479">
         <v>44043</v>
       </c>
@@ -5944,7 +6034,7 @@
       <c r="G107" s="482"/>
       <c r="H107" s="486"/>
     </row>
-    <row r="108" spans="1:8" s="484" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="484" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="479">
         <v>44043</v>
       </c>
@@ -5968,7 +6058,9 @@
       <c r="A109" s="479">
         <v>44043</v>
       </c>
-      <c r="B109" s="479"/>
+      <c r="B109" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C109" s="480" t="s">
         <v>237</v>
       </c>
@@ -5987,7 +6079,9 @@
       <c r="A110" s="479">
         <v>44043</v>
       </c>
-      <c r="B110" s="479"/>
+      <c r="B110" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C110" s="480" t="s">
         <v>237</v>
       </c>
@@ -6005,7 +6099,9 @@
       <c r="A111" s="479">
         <v>44043</v>
       </c>
-      <c r="B111" s="479"/>
+      <c r="B111" s="479" t="s">
+        <v>378</v>
+      </c>
       <c r="C111" s="480" t="s">
         <v>237</v>
       </c>
@@ -6023,7 +6119,9 @@
       <c r="A112" s="479">
         <v>44043</v>
       </c>
-      <c r="B112" s="479"/>
+      <c r="B112" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C112" s="480" t="s">
         <v>243</v>
       </c>
@@ -6041,7 +6139,9 @@
       <c r="A113" s="479">
         <v>44043</v>
       </c>
-      <c r="B113" s="479"/>
+      <c r="B113" s="479" t="s">
+        <v>379</v>
+      </c>
       <c r="C113" s="480" t="s">
         <v>243</v>
       </c>
@@ -6055,7 +6155,7 @@
         <v>365000</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="121" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" s="121" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="494" t="s">
         <v>10</v>
       </c>
@@ -8321,47 +8421,40 @@
   </sheetData>
   <autoFilter ref="A6:H114">
     <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="PC00112"/>
-        <filter val="PC00113"/>
-        <filter val="PC00114"/>
-        <filter val="PC00115"/>
-        <filter val="PC00116"/>
-        <filter val="PC00117"/>
-        <filter val="PC00118"/>
-        <filter val="PC00119"/>
-        <filter val="PC00120"/>
-        <filter val="PC00121"/>
-        <filter val="PC00122"/>
-        <filter val="PC00123"/>
-        <filter val="PC00124"/>
-        <filter val="PC00125"/>
-        <filter val="PC00126"/>
-        <filter val="PC00127"/>
-        <filter val="PC00128"/>
-        <filter val="PC00129"/>
-        <filter val="PC00130"/>
-        <filter val="PC00131"/>
-        <filter val="PC00132"/>
-        <filter val="PC00133"/>
-        <filter val="PC00134"/>
-        <filter val="PC00135"/>
-        <filter val="PC00136"/>
-        <filter val="PC00137"/>
-        <filter val="PC00138"/>
-        <filter val="PC00139"/>
-        <filter val="PC00140"/>
-        <filter val="PC00141"/>
-        <filter val="PC00142"/>
+      <filters>
+        <filter val="PT00106"/>
+        <filter val="PT00107"/>
+        <filter val="PT00108"/>
+        <filter val="PT00109"/>
+        <filter val="PT00110"/>
+        <filter val="PT00111"/>
+        <filter val="PT00112"/>
+        <filter val="PT00113"/>
+        <filter val="PT00114"/>
+        <filter val="PT00115"/>
+        <filter val="PT00116"/>
+        <filter val="PT00117"/>
+        <filter val="PT00118"/>
+        <filter val="PT00119"/>
+        <filter val="PT00120"/>
+        <filter val="PT00121"/>
+        <filter val="PT00122"/>
+        <filter val="PT00123"/>
+        <filter val="PT00124"/>
+        <filter val="PT00125"/>
+        <filter val="PT00126"/>
+        <filter val="PT00127"/>
+        <filter val="PT00128"/>
+        <filter val="PT00129"/>
+        <filter val="PT00130"/>
+        <filter val="PT00131"/>
+        <filter val="PT00132"/>
+        <filter val="PT00133"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="Biển Bảng"/>
+      <filters>
         <filter val="Hàng hóa"/>
-        <filter val="Khác"/>
-        <filter val="Lương, thưởng"/>
-        <filter val="Vận Chuyển"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
@@ -8428,7 +8521,7 @@
   <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L121" sqref="L121:L122"/>
     </sheetView>
   </sheetViews>
@@ -15123,15 +15216,15 @@
         <v>39</v>
       </c>
       <c r="E5" s="587"/>
-      <c r="F5" s="588" t="s">
+      <c r="F5" s="592" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="588"/>
-      <c r="H5" s="588"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="588"/>
-      <c r="K5" s="588"/>
-      <c r="L5" s="588"/>
+      <c r="G5" s="592"/>
+      <c r="H5" s="592"/>
+      <c r="I5" s="592"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="592"/>
     </row>
     <row r="6" spans="1:13" s="138" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="587"/>
@@ -15149,17 +15242,17 @@
       <c r="G6" s="587" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="592" t="s">
+      <c r="H6" s="591" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="592" t="s">
+      <c r="I6" s="591" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="594" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="594"/>
-      <c r="L6" s="592" t="s">
+      <c r="L6" s="591" t="s">
         <v>43</v>
       </c>
     </row>
@@ -15171,15 +15264,15 @@
       <c r="E7" s="587"/>
       <c r="F7" s="587"/>
       <c r="G7" s="587"/>
-      <c r="H7" s="592"/>
-      <c r="I7" s="592"/>
+      <c r="H7" s="591"/>
+      <c r="I7" s="591"/>
       <c r="J7" s="163" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="592"/>
+      <c r="L7" s="591"/>
     </row>
     <row r="8" spans="1:13" s="300" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="234">
@@ -15679,16 +15772,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="204" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="589" t="s">
+      <c r="A31" s="588" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="590"/>
-      <c r="C31" s="590"/>
-      <c r="D31" s="590"/>
-      <c r="E31" s="590"/>
-      <c r="F31" s="590"/>
-      <c r="G31" s="590"/>
-      <c r="H31" s="591"/>
+      <c r="B31" s="589"/>
+      <c r="C31" s="589"/>
+      <c r="D31" s="589"/>
+      <c r="E31" s="589"/>
+      <c r="F31" s="589"/>
+      <c r="G31" s="589"/>
+      <c r="H31" s="590"/>
       <c r="I31" s="205">
         <f>SUM(I8:I30)</f>
         <v>10995000</v>
@@ -15742,15 +15835,15 @@
         <v>39</v>
       </c>
       <c r="E34" s="587"/>
-      <c r="F34" s="588" t="s">
+      <c r="F34" s="592" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="588"/>
-      <c r="H34" s="588"/>
-      <c r="I34" s="588"/>
-      <c r="J34" s="588"/>
-      <c r="K34" s="588"/>
-      <c r="L34" s="588"/>
+      <c r="G34" s="592"/>
+      <c r="H34" s="592"/>
+      <c r="I34" s="592"/>
+      <c r="J34" s="592"/>
+      <c r="K34" s="592"/>
+      <c r="L34" s="592"/>
     </row>
     <row r="35" spans="1:12" s="138" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="587"/>
@@ -15768,17 +15861,17 @@
       <c r="G35" s="587" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="592" t="s">
+      <c r="H35" s="591" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="592" t="s">
+      <c r="I35" s="591" t="s">
         <v>42</v>
       </c>
       <c r="J35" s="594" t="s">
         <v>34</v>
       </c>
       <c r="K35" s="594"/>
-      <c r="L35" s="592" t="s">
+      <c r="L35" s="591" t="s">
         <v>43</v>
       </c>
     </row>
@@ -15790,15 +15883,15 @@
       <c r="E36" s="587"/>
       <c r="F36" s="587"/>
       <c r="G36" s="587"/>
-      <c r="H36" s="592"/>
-      <c r="I36" s="592"/>
+      <c r="H36" s="591"/>
+      <c r="I36" s="591"/>
       <c r="J36" s="295" t="s">
         <v>83</v>
       </c>
       <c r="K36" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="L36" s="592"/>
+      <c r="L36" s="591"/>
     </row>
     <row r="37" spans="1:12" s="300" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="234">
@@ -15873,16 +15966,16 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="204" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="589" t="s">
+      <c r="A39" s="588" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="590"/>
-      <c r="C39" s="590"/>
-      <c r="D39" s="590"/>
-      <c r="E39" s="590"/>
-      <c r="F39" s="590"/>
-      <c r="G39" s="590"/>
-      <c r="H39" s="591"/>
+      <c r="B39" s="589"/>
+      <c r="C39" s="589"/>
+      <c r="D39" s="589"/>
+      <c r="E39" s="589"/>
+      <c r="F39" s="589"/>
+      <c r="G39" s="589"/>
+      <c r="H39" s="590"/>
       <c r="I39" s="205">
         <f>SUM(I37:I38)</f>
         <v>910000</v>
@@ -15992,15 +16085,15 @@
         <v>39</v>
       </c>
       <c r="E46" s="587"/>
-      <c r="F46" s="588" t="s">
+      <c r="F46" s="592" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="588"/>
-      <c r="H46" s="588"/>
-      <c r="I46" s="588"/>
-      <c r="J46" s="588"/>
-      <c r="K46" s="588"/>
-      <c r="L46" s="588"/>
+      <c r="G46" s="592"/>
+      <c r="H46" s="592"/>
+      <c r="I46" s="592"/>
+      <c r="J46" s="592"/>
+      <c r="K46" s="592"/>
+      <c r="L46" s="592"/>
     </row>
     <row r="47" spans="1:12" s="138" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="587"/>
@@ -16018,17 +16111,17 @@
       <c r="G47" s="587" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="592" t="s">
+      <c r="H47" s="591" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="592" t="s">
+      <c r="I47" s="591" t="s">
         <v>42</v>
       </c>
       <c r="J47" s="594" t="s">
         <v>34</v>
       </c>
       <c r="K47" s="594"/>
-      <c r="L47" s="592" t="s">
+      <c r="L47" s="591" t="s">
         <v>43</v>
       </c>
     </row>
@@ -16040,15 +16133,15 @@
       <c r="E48" s="587"/>
       <c r="F48" s="587"/>
       <c r="G48" s="587"/>
-      <c r="H48" s="592"/>
-      <c r="I48" s="592"/>
+      <c r="H48" s="591"/>
+      <c r="I48" s="591"/>
       <c r="J48" s="308" t="s">
         <v>83</v>
       </c>
       <c r="K48" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="592"/>
+      <c r="L48" s="591"/>
     </row>
     <row r="49" spans="1:13" s="300" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="234">
@@ -16582,6 +16675,10 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:L46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="F5:L5"/>
@@ -16598,10 +16695,6 @@
     <mergeCell ref="J16:J18"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:L46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
     <mergeCell ref="D57:I57"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="J57:K57"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 7_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 7_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -2962,28 +2962,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3001,25 +3064,73 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3031,31 +3142,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3103,73 +3199,82 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3178,48 +3283,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3229,6 +3292,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3244,9 +3379,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3256,102 +3388,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3382,25 +3436,49 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3432,84 +3510,6 @@
     </xf>
     <xf numFmtId="14" fontId="36" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3880,16 +3880,16 @@
       <c r="I3" s="97"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="453" t="s">
+      <c r="A4" s="474" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="453"/>
-      <c r="C4" s="453"/>
-      <c r="D4" s="453"/>
-      <c r="E4" s="453"/>
-      <c r="F4" s="453"/>
-      <c r="G4" s="453"/>
-      <c r="H4" s="453"/>
+      <c r="B4" s="474"/>
+      <c r="C4" s="474"/>
+      <c r="D4" s="474"/>
+      <c r="E4" s="474"/>
+      <c r="F4" s="474"/>
+      <c r="G4" s="474"/>
+      <c r="H4" s="474"/>
       <c r="I4" s="97"/>
     </row>
     <row r="5" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.25">
@@ -3902,32 +3902,32 @@
       <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:9" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="444" t="s">
+      <c r="A6" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="442" t="s">
+      <c r="B6" s="468" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="444" t="s">
+      <c r="C6" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="446" t="s">
+      <c r="D6" s="466" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="448" t="s">
+      <c r="E6" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="448"/>
-      <c r="G6" s="448" t="s">
+      <c r="F6" s="462"/>
+      <c r="G6" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="448"/>
+      <c r="H6" s="462"/>
     </row>
     <row r="7" spans="1:9" s="95" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="445"/>
-      <c r="B7" s="443"/>
-      <c r="C7" s="445"/>
-      <c r="D7" s="447"/>
+      <c r="A7" s="465"/>
+      <c r="B7" s="469"/>
+      <c r="C7" s="465"/>
+      <c r="D7" s="467"/>
       <c r="E7" s="99" t="s">
         <v>80</v>
       </c>
@@ -6064,12 +6064,12 @@
       </c>
     </row>
     <row r="114" spans="1:8" s="101" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="450" t="s">
+      <c r="A114" s="471" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="451"/>
-      <c r="C114" s="451"/>
-      <c r="D114" s="452"/>
+      <c r="B114" s="472"/>
+      <c r="C114" s="472"/>
+      <c r="D114" s="473"/>
       <c r="E114" s="100">
         <f>SUM(E8:E113)</f>
         <v>291750250</v>
@@ -6098,11 +6098,11 @@
       <c r="H115" s="103"/>
     </row>
     <row r="116" spans="1:8" s="101" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A116" s="449" t="s">
+      <c r="A116" s="470" t="s">
         <v>81</v>
       </c>
-      <c r="B116" s="449"/>
-      <c r="C116" s="449"/>
+      <c r="B116" s="470"/>
+      <c r="C116" s="470"/>
       <c r="D116" s="102"/>
       <c r="E116" s="103"/>
       <c r="F116" s="103"/>
@@ -6122,42 +6122,42 @@
     <row r="118" spans="1:8" s="101" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="126"/>
       <c r="B118" s="126"/>
-      <c r="C118" s="441" t="s">
+      <c r="C118" s="463" t="s">
         <v>112</v>
       </c>
-      <c r="D118" s="441"/>
+      <c r="D118" s="463"/>
       <c r="E118" s="103"/>
       <c r="F118" s="103"/>
       <c r="G118" s="103"/>
       <c r="H118" s="103"/>
     </row>
     <row r="119" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="444" t="s">
+      <c r="A119" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="B119" s="442" t="s">
+      <c r="B119" s="468" t="s">
         <v>310</v>
       </c>
-      <c r="C119" s="444" t="s">
+      <c r="C119" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="446" t="s">
+      <c r="D119" s="466" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="448" t="s">
+      <c r="E119" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="F119" s="448"/>
-      <c r="G119" s="448" t="s">
+      <c r="F119" s="462"/>
+      <c r="G119" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="H119" s="448"/>
+      <c r="H119" s="462"/>
     </row>
     <row r="120" spans="1:8" s="95" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="445"/>
-      <c r="B120" s="443"/>
-      <c r="C120" s="445"/>
-      <c r="D120" s="447"/>
+      <c r="A120" s="465"/>
+      <c r="B120" s="469"/>
+      <c r="C120" s="465"/>
+      <c r="D120" s="467"/>
       <c r="E120" s="99" t="s">
         <v>80</v>
       </c>
@@ -6357,42 +6357,42 @@
     <row r="131" spans="1:8" s="101" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="126"/>
       <c r="B131" s="126"/>
-      <c r="C131" s="441" t="s">
+      <c r="C131" s="463" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="441"/>
+      <c r="D131" s="463"/>
       <c r="E131" s="103"/>
       <c r="F131" s="103"/>
       <c r="G131" s="103"/>
       <c r="H131" s="103"/>
     </row>
     <row r="132" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="444" t="s">
+      <c r="A132" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="442" t="s">
+      <c r="B132" s="468" t="s">
         <v>310</v>
       </c>
-      <c r="C132" s="444" t="s">
+      <c r="C132" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="446" t="s">
+      <c r="D132" s="466" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="448" t="s">
+      <c r="E132" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="F132" s="448"/>
-      <c r="G132" s="448" t="s">
+      <c r="F132" s="462"/>
+      <c r="G132" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="H132" s="448"/>
+      <c r="H132" s="462"/>
     </row>
     <row r="133" spans="1:8" s="95" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="445"/>
-      <c r="B133" s="443"/>
-      <c r="C133" s="445"/>
-      <c r="D133" s="447"/>
+      <c r="A133" s="465"/>
+      <c r="B133" s="469"/>
+      <c r="C133" s="465"/>
+      <c r="D133" s="467"/>
       <c r="E133" s="99" t="s">
         <v>80</v>
       </c>
@@ -6942,38 +6942,38 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C162" s="441" t="s">
+      <c r="C162" s="463" t="s">
         <v>280</v>
       </c>
-      <c r="D162" s="441"/>
+      <c r="D162" s="463"/>
     </row>
     <row r="163" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="444" t="s">
+      <c r="A163" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="B163" s="442" t="s">
+      <c r="B163" s="468" t="s">
         <v>310</v>
       </c>
-      <c r="C163" s="444" t="s">
+      <c r="C163" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="D163" s="446" t="s">
+      <c r="D163" s="466" t="s">
         <v>6</v>
       </c>
-      <c r="E163" s="448" t="s">
+      <c r="E163" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="F163" s="448"/>
-      <c r="G163" s="448" t="s">
+      <c r="F163" s="462"/>
+      <c r="G163" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="H163" s="448"/>
+      <c r="H163" s="462"/>
     </row>
     <row r="164" spans="1:8" s="95" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="445"/>
-      <c r="B164" s="443"/>
-      <c r="C164" s="445"/>
-      <c r="D164" s="447"/>
+      <c r="A164" s="465"/>
+      <c r="B164" s="469"/>
+      <c r="C164" s="465"/>
+      <c r="D164" s="467"/>
       <c r="E164" s="99" t="s">
         <v>80</v>
       </c>
@@ -7610,38 +7610,38 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C197" s="441" t="s">
+      <c r="C197" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="441"/>
+      <c r="D197" s="463"/>
     </row>
     <row r="198" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="444" t="s">
+      <c r="A198" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="B198" s="442" t="s">
+      <c r="B198" s="468" t="s">
         <v>310</v>
       </c>
-      <c r="C198" s="444" t="s">
+      <c r="C198" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="D198" s="446" t="s">
+      <c r="D198" s="466" t="s">
         <v>6</v>
       </c>
-      <c r="E198" s="448" t="s">
+      <c r="E198" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="F198" s="448"/>
-      <c r="G198" s="448" t="s">
+      <c r="F198" s="462"/>
+      <c r="G198" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="H198" s="448"/>
+      <c r="H198" s="462"/>
     </row>
     <row r="199" spans="1:8" s="95" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="445"/>
-      <c r="B199" s="443"/>
-      <c r="C199" s="445"/>
-      <c r="D199" s="447"/>
+      <c r="A199" s="465"/>
+      <c r="B199" s="469"/>
+      <c r="C199" s="465"/>
+      <c r="D199" s="467"/>
       <c r="E199" s="99" t="s">
         <v>80</v>
       </c>
@@ -7812,38 +7812,38 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C209" s="441" t="s">
+      <c r="C209" s="463" t="s">
         <v>372</v>
       </c>
-      <c r="D209" s="441"/>
+      <c r="D209" s="463"/>
     </row>
     <row r="210" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="444" t="s">
+      <c r="A210" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="B210" s="442" t="s">
+      <c r="B210" s="468" t="s">
         <v>310</v>
       </c>
-      <c r="C210" s="444" t="s">
+      <c r="C210" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="D210" s="446" t="s">
+      <c r="D210" s="466" t="s">
         <v>6</v>
       </c>
-      <c r="E210" s="448" t="s">
+      <c r="E210" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="F210" s="448"/>
-      <c r="G210" s="448" t="s">
+      <c r="F210" s="462"/>
+      <c r="G210" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="H210" s="448"/>
+      <c r="H210" s="462"/>
     </row>
     <row r="211" spans="1:8" s="95" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="445"/>
-      <c r="B211" s="443"/>
-      <c r="C211" s="445"/>
-      <c r="D211" s="447"/>
+      <c r="A211" s="465"/>
+      <c r="B211" s="469"/>
+      <c r="C211" s="465"/>
+      <c r="D211" s="467"/>
       <c r="E211" s="99" t="s">
         <v>80</v>
       </c>
@@ -8294,38 +8294,38 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C235" s="441" t="s">
+      <c r="C235" s="463" t="s">
         <v>13</v>
       </c>
-      <c r="D235" s="441"/>
+      <c r="D235" s="463"/>
     </row>
     <row r="236" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="444" t="s">
+      <c r="A236" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="442" t="s">
+      <c r="B236" s="468" t="s">
         <v>310</v>
       </c>
-      <c r="C236" s="444" t="s">
+      <c r="C236" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="D236" s="446" t="s">
+      <c r="D236" s="466" t="s">
         <v>6</v>
       </c>
-      <c r="E236" s="448" t="s">
+      <c r="E236" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="F236" s="448"/>
-      <c r="G236" s="448" t="s">
+      <c r="F236" s="462"/>
+      <c r="G236" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="H236" s="448"/>
+      <c r="H236" s="462"/>
     </row>
     <row r="237" spans="1:8" s="95" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="445"/>
-      <c r="B237" s="443"/>
-      <c r="C237" s="445"/>
-      <c r="D237" s="447"/>
+      <c r="A237" s="465"/>
+      <c r="B237" s="469"/>
+      <c r="C237" s="465"/>
+      <c r="D237" s="467"/>
       <c r="E237" s="99" t="s">
         <v>80</v>
       </c>
@@ -8433,38 +8433,38 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C244" s="441" t="s">
+      <c r="C244" s="463" t="s">
         <v>23</v>
       </c>
-      <c r="D244" s="441"/>
+      <c r="D244" s="463"/>
     </row>
     <row r="245" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="444" t="s">
+      <c r="A245" s="464" t="s">
         <v>4</v>
       </c>
-      <c r="B245" s="442" t="s">
+      <c r="B245" s="468" t="s">
         <v>310</v>
       </c>
-      <c r="C245" s="444" t="s">
+      <c r="C245" s="464" t="s">
         <v>5</v>
       </c>
-      <c r="D245" s="446" t="s">
+      <c r="D245" s="466" t="s">
         <v>6</v>
       </c>
-      <c r="E245" s="448" t="s">
+      <c r="E245" s="462" t="s">
         <v>7</v>
       </c>
-      <c r="F245" s="448"/>
-      <c r="G245" s="448" t="s">
+      <c r="F245" s="462"/>
+      <c r="G245" s="462" t="s">
         <v>8</v>
       </c>
-      <c r="H245" s="448"/>
+      <c r="H245" s="462"/>
     </row>
     <row r="246" spans="1:8" s="95" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="445"/>
-      <c r="B246" s="443"/>
-      <c r="C246" s="445"/>
-      <c r="D246" s="447"/>
+      <c r="A246" s="465"/>
+      <c r="B246" s="469"/>
+      <c r="C246" s="465"/>
+      <c r="D246" s="467"/>
       <c r="E246" s="99" t="s">
         <v>80</v>
       </c>
@@ -8700,6 +8700,52 @@
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="58">
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="G245:H245"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:F163"/>
     <mergeCell ref="G236:H236"/>
     <mergeCell ref="C209:D209"/>
     <mergeCell ref="A236:A237"/>
@@ -8712,52 +8758,6 @@
     <mergeCell ref="E210:F210"/>
     <mergeCell ref="G210:H210"/>
     <mergeCell ref="B236:B237"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="E245:F245"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -8768,9 +8768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8796,13 +8796,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="473" t="s">
+      <c r="A1" s="505" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="473"/>
-      <c r="C1" s="473"/>
-      <c r="D1" s="473"/>
-      <c r="E1" s="473"/>
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
       <c r="H1" s="334"/>
       <c r="I1" s="334"/>
       <c r="J1" s="334"/>
@@ -8830,153 +8830,153 @@
       <c r="O2" s="334"/>
     </row>
     <row r="3" spans="1:17" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="474" t="s">
+      <c r="A3" s="506" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="474"/>
-      <c r="C3" s="474"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="474"/>
-      <c r="F3" s="474"/>
-      <c r="G3" s="474"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="474"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="474"/>
-      <c r="L3" s="474"/>
-      <c r="M3" s="474"/>
-      <c r="N3" s="474"/>
-      <c r="O3" s="474"/>
-      <c r="P3" s="474"/>
+      <c r="B3" s="506"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="506"/>
+      <c r="J3" s="506"/>
+      <c r="K3" s="506"/>
+      <c r="L3" s="506"/>
+      <c r="M3" s="506"/>
+      <c r="N3" s="506"/>
+      <c r="O3" s="506"/>
+      <c r="P3" s="506"/>
     </row>
     <row r="4" spans="1:17" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="474" t="s">
+      <c r="A4" s="506" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="474"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="474"/>
-      <c r="E4" s="474"/>
-      <c r="F4" s="474"/>
-      <c r="G4" s="474"/>
-      <c r="H4" s="474"/>
-      <c r="I4" s="474"/>
-      <c r="J4" s="474"/>
-      <c r="K4" s="474"/>
-      <c r="L4" s="474"/>
-      <c r="M4" s="474"/>
-      <c r="N4" s="474"/>
-      <c r="O4" s="474"/>
-      <c r="P4" s="474"/>
+      <c r="B4" s="506"/>
+      <c r="C4" s="506"/>
+      <c r="D4" s="506"/>
+      <c r="E4" s="506"/>
+      <c r="F4" s="506"/>
+      <c r="G4" s="506"/>
+      <c r="H4" s="506"/>
+      <c r="I4" s="506"/>
+      <c r="J4" s="506"/>
+      <c r="K4" s="506"/>
+      <c r="L4" s="506"/>
+      <c r="M4" s="506"/>
+      <c r="N4" s="506"/>
+      <c r="O4" s="506"/>
+      <c r="P4" s="506"/>
     </row>
     <row r="5" spans="1:17" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="474"/>
-      <c r="B5" s="474"/>
-      <c r="C5" s="474"/>
-      <c r="D5" s="474"/>
-      <c r="E5" s="474"/>
-      <c r="F5" s="474"/>
-      <c r="G5" s="474"/>
-      <c r="H5" s="474"/>
-      <c r="I5" s="474"/>
-      <c r="J5" s="474"/>
-      <c r="K5" s="475"/>
-      <c r="L5" s="475"/>
+      <c r="A5" s="506"/>
+      <c r="B5" s="506"/>
+      <c r="C5" s="506"/>
+      <c r="D5" s="506"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="506"/>
+      <c r="J5" s="506"/>
+      <c r="K5" s="507"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="334"/>
       <c r="N5" s="334"/>
       <c r="O5" s="334"/>
     </row>
     <row r="6" spans="1:17" s="258" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="476" t="s">
+      <c r="A6" s="508" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="478" t="s">
+      <c r="B6" s="510" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="476" t="s">
+      <c r="C6" s="508" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="482" t="s">
+      <c r="D6" s="514" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="482"/>
-      <c r="F6" s="483" t="s">
+      <c r="E6" s="514"/>
+      <c r="F6" s="515" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="483"/>
-      <c r="H6" s="483"/>
-      <c r="I6" s="483"/>
-      <c r="J6" s="483"/>
-      <c r="K6" s="483"/>
-      <c r="L6" s="483"/>
-      <c r="M6" s="484"/>
-      <c r="N6" s="484"/>
-      <c r="O6" s="484"/>
-      <c r="P6" s="485" t="s">
+      <c r="G6" s="515"/>
+      <c r="H6" s="515"/>
+      <c r="I6" s="515"/>
+      <c r="J6" s="515"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="515"/>
+      <c r="M6" s="516"/>
+      <c r="N6" s="516"/>
+      <c r="O6" s="516"/>
+      <c r="P6" s="517" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="258" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="477"/>
-      <c r="B7" s="479"/>
-      <c r="C7" s="477"/>
-      <c r="D7" s="476" t="s">
+      <c r="A7" s="509"/>
+      <c r="B7" s="511"/>
+      <c r="C7" s="509"/>
+      <c r="D7" s="508" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="476" t="s">
+      <c r="E7" s="508" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="476" t="s">
+      <c r="F7" s="508" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="476" t="s">
+      <c r="G7" s="508" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="480" t="s">
+      <c r="H7" s="512" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="480" t="s">
+      <c r="I7" s="512" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="487" t="s">
+      <c r="J7" s="519" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="487"/>
-      <c r="L7" s="480" t="s">
+      <c r="K7" s="519"/>
+      <c r="L7" s="512" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="480" t="s">
+      <c r="M7" s="512" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="480" t="s">
+      <c r="N7" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="480" t="s">
+      <c r="O7" s="512" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="486"/>
+      <c r="P7" s="518"/>
     </row>
     <row r="8" spans="1:17" s="258" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="477"/>
-      <c r="B8" s="479"/>
-      <c r="C8" s="477"/>
-      <c r="D8" s="477"/>
-      <c r="E8" s="477"/>
-      <c r="F8" s="477"/>
-      <c r="G8" s="477"/>
-      <c r="H8" s="481"/>
-      <c r="I8" s="481"/>
+      <c r="A8" s="509"/>
+      <c r="B8" s="511"/>
+      <c r="C8" s="509"/>
+      <c r="D8" s="509"/>
+      <c r="E8" s="509"/>
+      <c r="F8" s="509"/>
+      <c r="G8" s="509"/>
+      <c r="H8" s="513"/>
+      <c r="I8" s="513"/>
       <c r="J8" s="330" t="s">
         <v>82</v>
       </c>
       <c r="K8" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="481"/>
-      <c r="M8" s="481"/>
-      <c r="N8" s="481"/>
-      <c r="O8" s="481"/>
-      <c r="P8" s="486"/>
+      <c r="L8" s="513"/>
+      <c r="M8" s="513"/>
+      <c r="N8" s="513"/>
+      <c r="O8" s="513"/>
+      <c r="P8" s="518"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="422">
@@ -9073,17 +9073,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="467">
+      <c r="A11" s="484">
         <v>1165</v>
       </c>
-      <c r="B11" s="464">
+      <c r="B11" s="495">
         <v>44013</v>
       </c>
-      <c r="C11" s="458" t="s">
+      <c r="C11" s="488" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="458"/>
-      <c r="E11" s="458" t="s">
+      <c r="D11" s="488"/>
+      <c r="E11" s="488" t="s">
         <v>161</v>
       </c>
       <c r="F11" s="345" t="s">
@@ -9113,16 +9113,16 @@
       </c>
       <c r="N11" s="346"/>
       <c r="O11" s="346"/>
-      <c r="P11" s="458" t="s">
+      <c r="P11" s="488" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="469"/>
-      <c r="B12" s="466"/>
-      <c r="C12" s="460"/>
-      <c r="D12" s="460"/>
-      <c r="E12" s="460"/>
+      <c r="A12" s="485"/>
+      <c r="B12" s="497"/>
+      <c r="C12" s="480"/>
+      <c r="D12" s="480"/>
+      <c r="E12" s="480"/>
       <c r="F12" s="348" t="s">
         <v>152</v>
       </c>
@@ -9150,23 +9150,23 @@
       </c>
       <c r="N12" s="55"/>
       <c r="O12" s="55"/>
-      <c r="P12" s="460"/>
+      <c r="P12" s="480"/>
       <c r="Q12" s="350"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="467">
+      <c r="A13" s="484">
         <v>1180</v>
       </c>
-      <c r="B13" s="464">
+      <c r="B13" s="495">
         <v>44015</v>
       </c>
-      <c r="C13" s="458" t="s">
+      <c r="C13" s="488" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="458" t="s">
+      <c r="D13" s="488" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="458"/>
+      <c r="E13" s="488"/>
       <c r="F13" s="345" t="s">
         <v>155</v>
       </c>
@@ -9197,11 +9197,11 @@
       <c r="P13" s="351"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="469"/>
-      <c r="B14" s="466"/>
-      <c r="C14" s="460"/>
-      <c r="D14" s="460"/>
-      <c r="E14" s="460"/>
+      <c r="A14" s="485"/>
+      <c r="B14" s="497"/>
+      <c r="C14" s="480"/>
+      <c r="D14" s="480"/>
+      <c r="E14" s="480"/>
       <c r="F14" s="348" t="s">
         <v>152</v>
       </c>
@@ -9322,17 +9322,17 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="467">
+      <c r="A17" s="484">
         <v>1177</v>
       </c>
-      <c r="B17" s="464">
+      <c r="B17" s="495">
         <v>44018</v>
       </c>
-      <c r="C17" s="458"/>
-      <c r="D17" s="461" t="s">
+      <c r="C17" s="488"/>
+      <c r="D17" s="498" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="461" t="s">
+      <c r="E17" s="498" t="s">
         <v>159</v>
       </c>
       <c r="F17" s="345" t="s">
@@ -9365,11 +9365,11 @@
       <c r="P17" s="363"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="469"/>
-      <c r="B18" s="466"/>
-      <c r="C18" s="460"/>
-      <c r="D18" s="463"/>
-      <c r="E18" s="463"/>
+      <c r="A18" s="485"/>
+      <c r="B18" s="497"/>
+      <c r="C18" s="480"/>
+      <c r="D18" s="500"/>
+      <c r="E18" s="500"/>
       <c r="F18" s="348" t="s">
         <v>160</v>
       </c>
@@ -9443,19 +9443,19 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="467">
+      <c r="A20" s="484">
         <v>1183</v>
       </c>
-      <c r="B20" s="464">
+      <c r="B20" s="495">
         <v>44019</v>
       </c>
-      <c r="C20" s="458" t="s">
+      <c r="C20" s="488" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="461" t="s">
+      <c r="D20" s="498" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="461" t="s">
+      <c r="E20" s="498" t="s">
         <v>161</v>
       </c>
       <c r="F20" s="345" t="s">
@@ -9488,11 +9488,11 @@
       <c r="P20" s="363"/>
     </row>
     <row r="21" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="468"/>
-      <c r="B21" s="465"/>
-      <c r="C21" s="459"/>
-      <c r="D21" s="462"/>
-      <c r="E21" s="462"/>
+      <c r="A21" s="489"/>
+      <c r="B21" s="496"/>
+      <c r="C21" s="479"/>
+      <c r="D21" s="499"/>
+      <c r="E21" s="499"/>
       <c r="F21" s="365" t="s">
         <v>148</v>
       </c>
@@ -9523,11 +9523,11 @@
       <c r="P21" s="369"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="469"/>
-      <c r="B22" s="466"/>
-      <c r="C22" s="460"/>
-      <c r="D22" s="463"/>
-      <c r="E22" s="463"/>
+      <c r="A22" s="485"/>
+      <c r="B22" s="497"/>
+      <c r="C22" s="480"/>
+      <c r="D22" s="500"/>
+      <c r="E22" s="500"/>
       <c r="F22" s="348" t="s">
         <v>156</v>
       </c>
@@ -9559,17 +9559,17 @@
       <c r="R22" s="350"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="488">
+      <c r="A23" s="493">
         <v>493</v>
       </c>
-      <c r="B23" s="491">
+      <c r="B23" s="502">
         <v>44020</v>
       </c>
-      <c r="C23" s="494"/>
-      <c r="D23" s="494" t="s">
+      <c r="C23" s="491"/>
+      <c r="D23" s="491" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="494" t="s">
+      <c r="E23" s="491" t="s">
         <v>166</v>
       </c>
       <c r="F23" s="372" t="s">
@@ -9602,11 +9602,11 @@
       <c r="P23" s="372"/>
     </row>
     <row r="24" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="489"/>
-      <c r="B24" s="492"/>
-      <c r="C24" s="495"/>
-      <c r="D24" s="495"/>
-      <c r="E24" s="495"/>
+      <c r="A24" s="483"/>
+      <c r="B24" s="503"/>
+      <c r="C24" s="481"/>
+      <c r="D24" s="481"/>
+      <c r="E24" s="481"/>
       <c r="F24" s="365" t="s">
         <v>152</v>
       </c>
@@ -9637,11 +9637,11 @@
       <c r="P24" s="365"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="489"/>
-      <c r="B25" s="492"/>
-      <c r="C25" s="495"/>
-      <c r="D25" s="495"/>
-      <c r="E25" s="495"/>
+      <c r="A25" s="483"/>
+      <c r="B25" s="503"/>
+      <c r="C25" s="481"/>
+      <c r="D25" s="481"/>
+      <c r="E25" s="481"/>
       <c r="F25" s="365" t="s">
         <v>162</v>
       </c>
@@ -9672,11 +9672,11 @@
       <c r="P25" s="365"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="489"/>
-      <c r="B26" s="492"/>
-      <c r="C26" s="495"/>
-      <c r="D26" s="495"/>
-      <c r="E26" s="495"/>
+      <c r="A26" s="483"/>
+      <c r="B26" s="503"/>
+      <c r="C26" s="481"/>
+      <c r="D26" s="481"/>
+      <c r="E26" s="481"/>
       <c r="F26" s="365" t="s">
         <v>148</v>
       </c>
@@ -9707,11 +9707,11 @@
       <c r="P26" s="365"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="489"/>
-      <c r="B27" s="492"/>
-      <c r="C27" s="495"/>
-      <c r="D27" s="495"/>
-      <c r="E27" s="495"/>
+      <c r="A27" s="483"/>
+      <c r="B27" s="503"/>
+      <c r="C27" s="481"/>
+      <c r="D27" s="481"/>
+      <c r="E27" s="481"/>
       <c r="F27" s="365" t="s">
         <v>164</v>
       </c>
@@ -9742,11 +9742,11 @@
       <c r="P27" s="365"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="489"/>
-      <c r="B28" s="492"/>
-      <c r="C28" s="495"/>
-      <c r="D28" s="495"/>
-      <c r="E28" s="495"/>
+      <c r="A28" s="483"/>
+      <c r="B28" s="503"/>
+      <c r="C28" s="481"/>
+      <c r="D28" s="481"/>
+      <c r="E28" s="481"/>
       <c r="F28" s="365" t="s">
         <v>156</v>
       </c>
@@ -9777,11 +9777,11 @@
       <c r="P28" s="369"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="490"/>
-      <c r="B29" s="493"/>
-      <c r="C29" s="496"/>
-      <c r="D29" s="496"/>
-      <c r="E29" s="496"/>
+      <c r="A29" s="501"/>
+      <c r="B29" s="504"/>
+      <c r="C29" s="494"/>
+      <c r="D29" s="494"/>
+      <c r="E29" s="494"/>
       <c r="F29" s="348" t="s">
         <v>160</v>
       </c>
@@ -9900,17 +9900,17 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="467">
+      <c r="A32" s="484">
         <v>1186</v>
       </c>
-      <c r="B32" s="464">
+      <c r="B32" s="495">
         <v>44020</v>
       </c>
-      <c r="C32" s="458"/>
-      <c r="D32" s="461" t="s">
+      <c r="C32" s="488"/>
+      <c r="D32" s="498" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="458" t="s">
+      <c r="E32" s="488" t="s">
         <v>172</v>
       </c>
       <c r="F32" s="345" t="s">
@@ -9942,16 +9942,16 @@
       </c>
       <c r="N32" s="346"/>
       <c r="O32" s="346"/>
-      <c r="P32" s="461" t="s">
+      <c r="P32" s="498" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="468"/>
-      <c r="B33" s="465"/>
-      <c r="C33" s="459"/>
-      <c r="D33" s="462"/>
-      <c r="E33" s="459"/>
+      <c r="A33" s="489"/>
+      <c r="B33" s="496"/>
+      <c r="C33" s="479"/>
+      <c r="D33" s="499"/>
+      <c r="E33" s="479"/>
       <c r="F33" s="365" t="s">
         <v>152</v>
       </c>
@@ -9979,14 +9979,14 @@
       </c>
       <c r="N33" s="46"/>
       <c r="O33" s="46"/>
-      <c r="P33" s="462"/>
+      <c r="P33" s="499"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="469"/>
-      <c r="B34" s="466"/>
-      <c r="C34" s="460"/>
-      <c r="D34" s="463"/>
-      <c r="E34" s="460"/>
+      <c r="A34" s="485"/>
+      <c r="B34" s="497"/>
+      <c r="C34" s="480"/>
+      <c r="D34" s="500"/>
+      <c r="E34" s="480"/>
       <c r="F34" s="348" t="s">
         <v>148</v>
       </c>
@@ -10014,20 +10014,20 @@
       </c>
       <c r="N34" s="55"/>
       <c r="O34" s="55"/>
-      <c r="P34" s="463"/>
+      <c r="P34" s="500"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="467">
+      <c r="A35" s="484">
         <v>1191</v>
       </c>
-      <c r="B35" s="464">
+      <c r="B35" s="495">
         <v>44021</v>
       </c>
-      <c r="C35" s="458"/>
-      <c r="D35" s="461" t="s">
+      <c r="C35" s="488"/>
+      <c r="D35" s="498" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="458" t="s">
+      <c r="E35" s="488" t="s">
         <v>175</v>
       </c>
       <c r="F35" s="345" t="s">
@@ -10060,11 +10060,11 @@
       <c r="P35" s="345"/>
     </row>
     <row r="36" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="468"/>
-      <c r="B36" s="465"/>
-      <c r="C36" s="459"/>
-      <c r="D36" s="462"/>
-      <c r="E36" s="459"/>
+      <c r="A36" s="489"/>
+      <c r="B36" s="496"/>
+      <c r="C36" s="479"/>
+      <c r="D36" s="499"/>
+      <c r="E36" s="479"/>
       <c r="F36" s="365" t="s">
         <v>167</v>
       </c>
@@ -10095,11 +10095,11 @@
       <c r="P36" s="365"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="468"/>
-      <c r="B37" s="465"/>
-      <c r="C37" s="459"/>
-      <c r="D37" s="462"/>
-      <c r="E37" s="459"/>
+      <c r="A37" s="489"/>
+      <c r="B37" s="496"/>
+      <c r="C37" s="479"/>
+      <c r="D37" s="499"/>
+      <c r="E37" s="479"/>
       <c r="F37" s="365" t="s">
         <v>168</v>
       </c>
@@ -10130,11 +10130,11 @@
       <c r="P37" s="365"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="468"/>
-      <c r="B38" s="465"/>
-      <c r="C38" s="459"/>
-      <c r="D38" s="462"/>
-      <c r="E38" s="459"/>
+      <c r="A38" s="489"/>
+      <c r="B38" s="496"/>
+      <c r="C38" s="479"/>
+      <c r="D38" s="499"/>
+      <c r="E38" s="479"/>
       <c r="F38" s="365" t="s">
         <v>169</v>
       </c>
@@ -10165,11 +10165,11 @@
       <c r="P38" s="365"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="469"/>
-      <c r="B39" s="466"/>
-      <c r="C39" s="460"/>
-      <c r="D39" s="463"/>
-      <c r="E39" s="460"/>
+      <c r="A39" s="485"/>
+      <c r="B39" s="497"/>
+      <c r="C39" s="480"/>
+      <c r="D39" s="500"/>
+      <c r="E39" s="480"/>
       <c r="F39" s="348" t="s">
         <v>176</v>
       </c>
@@ -10337,19 +10337,19 @@
       <c r="P42" s="341"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="467">
+      <c r="A43" s="484">
         <v>495</v>
       </c>
-      <c r="B43" s="464">
+      <c r="B43" s="495">
         <v>44023</v>
       </c>
-      <c r="C43" s="458" t="s">
+      <c r="C43" s="488" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="461" t="s">
+      <c r="D43" s="498" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="458" t="s">
+      <c r="E43" s="488" t="s">
         <v>166</v>
       </c>
       <c r="F43" s="345" t="s">
@@ -10382,11 +10382,11 @@
       <c r="P43" s="345"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="468"/>
-      <c r="B44" s="465"/>
-      <c r="C44" s="459"/>
-      <c r="D44" s="462"/>
-      <c r="E44" s="459"/>
+      <c r="A44" s="489"/>
+      <c r="B44" s="496"/>
+      <c r="C44" s="479"/>
+      <c r="D44" s="499"/>
+      <c r="E44" s="479"/>
       <c r="F44" s="365" t="s">
         <v>152</v>
       </c>
@@ -10417,11 +10417,11 @@
       <c r="P44" s="365"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="468"/>
-      <c r="B45" s="465"/>
-      <c r="C45" s="459"/>
-      <c r="D45" s="462"/>
-      <c r="E45" s="459"/>
+      <c r="A45" s="489"/>
+      <c r="B45" s="496"/>
+      <c r="C45" s="479"/>
+      <c r="D45" s="499"/>
+      <c r="E45" s="479"/>
       <c r="F45" s="365" t="s">
         <v>162</v>
       </c>
@@ -10452,11 +10452,11 @@
       <c r="P45" s="365"/>
     </row>
     <row r="46" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="468"/>
-      <c r="B46" s="465"/>
-      <c r="C46" s="459"/>
-      <c r="D46" s="462"/>
-      <c r="E46" s="459"/>
+      <c r="A46" s="489"/>
+      <c r="B46" s="496"/>
+      <c r="C46" s="479"/>
+      <c r="D46" s="499"/>
+      <c r="E46" s="479"/>
       <c r="F46" s="365" t="s">
         <v>148</v>
       </c>
@@ -10487,11 +10487,11 @@
       <c r="P46" s="365"/>
     </row>
     <row r="47" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="468"/>
-      <c r="B47" s="465"/>
-      <c r="C47" s="459"/>
-      <c r="D47" s="462"/>
-      <c r="E47" s="459"/>
+      <c r="A47" s="489"/>
+      <c r="B47" s="496"/>
+      <c r="C47" s="479"/>
+      <c r="D47" s="499"/>
+      <c r="E47" s="479"/>
       <c r="F47" s="365" t="s">
         <v>164</v>
       </c>
@@ -10523,11 +10523,11 @@
       <c r="Q47" s="350"/>
     </row>
     <row r="48" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="468"/>
-      <c r="B48" s="465"/>
-      <c r="C48" s="459"/>
-      <c r="D48" s="462"/>
-      <c r="E48" s="459"/>
+      <c r="A48" s="489"/>
+      <c r="B48" s="496"/>
+      <c r="C48" s="479"/>
+      <c r="D48" s="499"/>
+      <c r="E48" s="479"/>
       <c r="F48" s="365" t="s">
         <v>156</v>
       </c>
@@ -10559,11 +10559,11 @@
       <c r="Q48" s="350"/>
     </row>
     <row r="49" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="469"/>
-      <c r="B49" s="466"/>
-      <c r="C49" s="460"/>
-      <c r="D49" s="463"/>
-      <c r="E49" s="460"/>
+      <c r="A49" s="485"/>
+      <c r="B49" s="497"/>
+      <c r="C49" s="480"/>
+      <c r="D49" s="500"/>
+      <c r="E49" s="480"/>
       <c r="F49" s="348" t="s">
         <v>160</v>
       </c>
@@ -10689,17 +10689,17 @@
       <c r="Q51" s="350"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="467">
+      <c r="A52" s="484">
         <v>1199</v>
       </c>
-      <c r="B52" s="464">
+      <c r="B52" s="495">
         <v>44026</v>
       </c>
-      <c r="C52" s="458"/>
-      <c r="D52" s="461" t="s">
+      <c r="C52" s="488"/>
+      <c r="D52" s="498" t="s">
         <v>189</v>
       </c>
-      <c r="E52" s="458" t="s">
+      <c r="E52" s="488" t="s">
         <v>190</v>
       </c>
       <c r="F52" s="345" t="s">
@@ -10733,11 +10733,11 @@
       <c r="Q52" s="350"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="469"/>
-      <c r="B53" s="466"/>
-      <c r="C53" s="460"/>
-      <c r="D53" s="463"/>
-      <c r="E53" s="460"/>
+      <c r="A53" s="485"/>
+      <c r="B53" s="497"/>
+      <c r="C53" s="480"/>
+      <c r="D53" s="500"/>
+      <c r="E53" s="480"/>
       <c r="F53" s="348" t="s">
         <v>160</v>
       </c>
@@ -10769,19 +10769,19 @@
       <c r="Q53" s="350"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="467">
+      <c r="A54" s="484">
         <v>1200</v>
       </c>
-      <c r="B54" s="464">
+      <c r="B54" s="495">
         <v>44026</v>
       </c>
-      <c r="C54" s="458" t="s">
+      <c r="C54" s="488" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="461" t="s">
+      <c r="D54" s="498" t="s">
         <v>192</v>
       </c>
-      <c r="E54" s="458"/>
+      <c r="E54" s="488"/>
       <c r="F54" s="345" t="s">
         <v>155</v>
       </c>
@@ -10810,11 +10810,11 @@
       <c r="Q54" s="350"/>
     </row>
     <row r="55" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="468"/>
-      <c r="B55" s="465"/>
-      <c r="C55" s="459"/>
-      <c r="D55" s="462"/>
-      <c r="E55" s="459"/>
+      <c r="A55" s="489"/>
+      <c r="B55" s="496"/>
+      <c r="C55" s="479"/>
+      <c r="D55" s="499"/>
+      <c r="E55" s="479"/>
       <c r="F55" s="365" t="s">
         <v>152</v>
       </c>
@@ -10843,11 +10843,11 @@
       <c r="Q55" s="350"/>
     </row>
     <row r="56" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="468"/>
-      <c r="B56" s="465"/>
-      <c r="C56" s="459"/>
-      <c r="D56" s="462"/>
-      <c r="E56" s="459"/>
+      <c r="A56" s="489"/>
+      <c r="B56" s="496"/>
+      <c r="C56" s="479"/>
+      <c r="D56" s="499"/>
+      <c r="E56" s="479"/>
       <c r="F56" s="365" t="s">
         <v>162</v>
       </c>
@@ -10876,11 +10876,11 @@
       <c r="Q56" s="350"/>
     </row>
     <row r="57" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="468"/>
-      <c r="B57" s="465"/>
-      <c r="C57" s="459"/>
-      <c r="D57" s="462"/>
-      <c r="E57" s="459"/>
+      <c r="A57" s="489"/>
+      <c r="B57" s="496"/>
+      <c r="C57" s="479"/>
+      <c r="D57" s="499"/>
+      <c r="E57" s="479"/>
       <c r="F57" s="365" t="s">
         <v>148</v>
       </c>
@@ -10909,11 +10909,11 @@
       <c r="Q57" s="350"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="468"/>
-      <c r="B58" s="465"/>
-      <c r="C58" s="459"/>
-      <c r="D58" s="462"/>
-      <c r="E58" s="459"/>
+      <c r="A58" s="489"/>
+      <c r="B58" s="496"/>
+      <c r="C58" s="479"/>
+      <c r="D58" s="499"/>
+      <c r="E58" s="479"/>
       <c r="F58" s="365" t="s">
         <v>164</v>
       </c>
@@ -10942,11 +10942,11 @@
       <c r="Q58" s="350"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="468"/>
-      <c r="B59" s="465"/>
-      <c r="C59" s="459"/>
-      <c r="D59" s="462"/>
-      <c r="E59" s="459"/>
+      <c r="A59" s="489"/>
+      <c r="B59" s="496"/>
+      <c r="C59" s="479"/>
+      <c r="D59" s="499"/>
+      <c r="E59" s="479"/>
       <c r="F59" s="365" t="s">
         <v>156</v>
       </c>
@@ -10975,11 +10975,11 @@
       <c r="Q59" s="350"/>
     </row>
     <row r="60" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="469"/>
-      <c r="B60" s="466"/>
-      <c r="C60" s="460"/>
-      <c r="D60" s="463"/>
-      <c r="E60" s="460"/>
+      <c r="A60" s="485"/>
+      <c r="B60" s="497"/>
+      <c r="C60" s="480"/>
+      <c r="D60" s="500"/>
+      <c r="E60" s="480"/>
       <c r="F60" s="348" t="s">
         <v>160</v>
       </c>
@@ -11008,19 +11008,19 @@
       <c r="Q60" s="350"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="467">
+      <c r="A61" s="484">
         <v>603</v>
       </c>
-      <c r="B61" s="464">
+      <c r="B61" s="495">
         <v>44027</v>
       </c>
-      <c r="C61" s="458" t="s">
+      <c r="C61" s="488" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="461" t="s">
+      <c r="D61" s="498" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="458" t="s">
+      <c r="E61" s="488" t="s">
         <v>194</v>
       </c>
       <c r="F61" s="345" t="s">
@@ -11054,11 +11054,11 @@
       <c r="Q61" s="350"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="468"/>
-      <c r="B62" s="465"/>
-      <c r="C62" s="459"/>
-      <c r="D62" s="462"/>
-      <c r="E62" s="459"/>
+      <c r="A62" s="489"/>
+      <c r="B62" s="496"/>
+      <c r="C62" s="479"/>
+      <c r="D62" s="499"/>
+      <c r="E62" s="479"/>
       <c r="F62" s="365" t="s">
         <v>152</v>
       </c>
@@ -11090,11 +11090,11 @@
       <c r="Q62" s="350"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="468"/>
-      <c r="B63" s="465"/>
-      <c r="C63" s="459"/>
-      <c r="D63" s="462"/>
-      <c r="E63" s="459"/>
+      <c r="A63" s="489"/>
+      <c r="B63" s="496"/>
+      <c r="C63" s="479"/>
+      <c r="D63" s="499"/>
+      <c r="E63" s="479"/>
       <c r="F63" s="365" t="s">
         <v>162</v>
       </c>
@@ -11126,11 +11126,11 @@
       <c r="Q63" s="350"/>
     </row>
     <row r="64" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="468"/>
-      <c r="B64" s="465"/>
-      <c r="C64" s="459"/>
-      <c r="D64" s="462"/>
-      <c r="E64" s="459"/>
+      <c r="A64" s="489"/>
+      <c r="B64" s="496"/>
+      <c r="C64" s="479"/>
+      <c r="D64" s="499"/>
+      <c r="E64" s="479"/>
       <c r="F64" s="365" t="s">
         <v>148</v>
       </c>
@@ -11162,11 +11162,11 @@
       <c r="Q64" s="350"/>
     </row>
     <row r="65" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="468"/>
-      <c r="B65" s="465"/>
-      <c r="C65" s="459"/>
-      <c r="D65" s="462"/>
-      <c r="E65" s="459"/>
+      <c r="A65" s="489"/>
+      <c r="B65" s="496"/>
+      <c r="C65" s="479"/>
+      <c r="D65" s="499"/>
+      <c r="E65" s="479"/>
       <c r="F65" s="365" t="s">
         <v>164</v>
       </c>
@@ -11197,11 +11197,11 @@
       <c r="P65" s="383"/>
     </row>
     <row r="66" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="468"/>
-      <c r="B66" s="465"/>
-      <c r="C66" s="459"/>
-      <c r="D66" s="462"/>
-      <c r="E66" s="459"/>
+      <c r="A66" s="489"/>
+      <c r="B66" s="496"/>
+      <c r="C66" s="479"/>
+      <c r="D66" s="499"/>
+      <c r="E66" s="479"/>
       <c r="F66" s="365" t="s">
         <v>187</v>
       </c>
@@ -11232,11 +11232,11 @@
       <c r="P66" s="383"/>
     </row>
     <row r="67" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="468"/>
-      <c r="B67" s="465"/>
-      <c r="C67" s="459"/>
-      <c r="D67" s="462"/>
-      <c r="E67" s="459"/>
+      <c r="A67" s="489"/>
+      <c r="B67" s="496"/>
+      <c r="C67" s="479"/>
+      <c r="D67" s="499"/>
+      <c r="E67" s="479"/>
       <c r="F67" s="365" t="s">
         <v>156</v>
       </c>
@@ -11267,11 +11267,11 @@
       <c r="P67" s="383"/>
     </row>
     <row r="68" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="469"/>
-      <c r="B68" s="466"/>
-      <c r="C68" s="460"/>
-      <c r="D68" s="463"/>
-      <c r="E68" s="460"/>
+      <c r="A68" s="485"/>
+      <c r="B68" s="497"/>
+      <c r="C68" s="480"/>
+      <c r="D68" s="500"/>
+      <c r="E68" s="480"/>
       <c r="F68" s="348" t="s">
         <v>160</v>
       </c>
@@ -11390,19 +11390,19 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="467">
+      <c r="A71" s="484">
         <v>498</v>
       </c>
-      <c r="B71" s="470">
+      <c r="B71" s="486">
         <v>44029</v>
       </c>
-      <c r="C71" s="458" t="s">
+      <c r="C71" s="488" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="458" t="s">
+      <c r="D71" s="488" t="s">
         <v>195</v>
       </c>
-      <c r="E71" s="458" t="s">
+      <c r="E71" s="488" t="s">
         <v>196</v>
       </c>
       <c r="F71" s="345" t="s">
@@ -11432,11 +11432,11 @@
       <c r="P71" s="386"/>
     </row>
     <row r="72" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="469"/>
-      <c r="B72" s="471"/>
-      <c r="C72" s="460"/>
-      <c r="D72" s="460"/>
-      <c r="E72" s="460"/>
+      <c r="A72" s="485"/>
+      <c r="B72" s="487"/>
+      <c r="C72" s="480"/>
+      <c r="D72" s="480"/>
+      <c r="E72" s="480"/>
       <c r="F72" s="348" t="s">
         <v>152</v>
       </c>
@@ -11464,17 +11464,17 @@
       <c r="P72" s="384"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="467">
+      <c r="A73" s="484">
         <v>499</v>
       </c>
-      <c r="B73" s="470">
+      <c r="B73" s="486">
         <v>44029</v>
       </c>
-      <c r="C73" s="458"/>
-      <c r="D73" s="458" t="s">
+      <c r="C73" s="488"/>
+      <c r="D73" s="488" t="s">
         <v>197</v>
       </c>
-      <c r="E73" s="458"/>
+      <c r="E73" s="488"/>
       <c r="F73" s="345" t="s">
         <v>155</v>
       </c>
@@ -11505,11 +11505,11 @@
       <c r="P73" s="386"/>
     </row>
     <row r="74" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="468"/>
-      <c r="B74" s="472"/>
-      <c r="C74" s="459"/>
-      <c r="D74" s="459"/>
-      <c r="E74" s="459"/>
+      <c r="A74" s="489"/>
+      <c r="B74" s="490"/>
+      <c r="C74" s="479"/>
+      <c r="D74" s="479"/>
+      <c r="E74" s="479"/>
       <c r="F74" s="365" t="s">
         <v>162</v>
       </c>
@@ -11540,11 +11540,11 @@
       <c r="P74" s="365"/>
     </row>
     <row r="75" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="469"/>
-      <c r="B75" s="471"/>
-      <c r="C75" s="460"/>
-      <c r="D75" s="460"/>
-      <c r="E75" s="460"/>
+      <c r="A75" s="485"/>
+      <c r="B75" s="487"/>
+      <c r="C75" s="480"/>
+      <c r="D75" s="480"/>
+      <c r="E75" s="480"/>
       <c r="F75" s="348" t="s">
         <v>148</v>
       </c>
@@ -11575,19 +11575,19 @@
       <c r="P75" s="348"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="467">
+      <c r="A76" s="484">
         <v>607</v>
       </c>
-      <c r="B76" s="470">
+      <c r="B76" s="486">
         <v>44029</v>
       </c>
-      <c r="C76" s="458" t="s">
+      <c r="C76" s="488" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="458" t="s">
+      <c r="D76" s="488" t="s">
         <v>147</v>
       </c>
-      <c r="E76" s="458" t="s">
+      <c r="E76" s="488" t="s">
         <v>172</v>
       </c>
       <c r="F76" s="345" t="s">
@@ -11617,16 +11617,16 @@
       </c>
       <c r="N76" s="346"/>
       <c r="O76" s="346"/>
-      <c r="P76" s="458" t="s">
+      <c r="P76" s="488" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="468"/>
-      <c r="B77" s="472"/>
-      <c r="C77" s="459"/>
-      <c r="D77" s="459"/>
-      <c r="E77" s="459"/>
+      <c r="A77" s="489"/>
+      <c r="B77" s="490"/>
+      <c r="C77" s="479"/>
+      <c r="D77" s="479"/>
+      <c r="E77" s="479"/>
       <c r="F77" s="365" t="s">
         <v>148</v>
       </c>
@@ -11654,14 +11654,14 @@
       </c>
       <c r="N77" s="46"/>
       <c r="O77" s="46"/>
-      <c r="P77" s="459"/>
+      <c r="P77" s="479"/>
     </row>
     <row r="78" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="469"/>
-      <c r="B78" s="471"/>
-      <c r="C78" s="460"/>
-      <c r="D78" s="460"/>
-      <c r="E78" s="460"/>
+      <c r="A78" s="485"/>
+      <c r="B78" s="487"/>
+      <c r="C78" s="480"/>
+      <c r="D78" s="480"/>
+      <c r="E78" s="480"/>
       <c r="F78" s="348" t="s">
         <v>160</v>
       </c>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="N78" s="55"/>
       <c r="O78" s="55"/>
-      <c r="P78" s="460"/>
+      <c r="P78" s="480"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="424">
@@ -11735,17 +11735,17 @@
       <c r="P79" s="377"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="467">
+      <c r="A80" s="484">
         <v>611</v>
       </c>
-      <c r="B80" s="470">
+      <c r="B80" s="486">
         <v>44032</v>
       </c>
-      <c r="C80" s="458"/>
-      <c r="D80" s="458" t="s">
+      <c r="C80" s="488"/>
+      <c r="D80" s="488" t="s">
         <v>199</v>
       </c>
-      <c r="E80" s="458" t="s">
+      <c r="E80" s="488" t="s">
         <v>200</v>
       </c>
       <c r="F80" s="345" t="s">
@@ -11775,16 +11775,16 @@
         <f>L80</f>
         <v>68250000</v>
       </c>
-      <c r="P80" s="494" t="s">
+      <c r="P80" s="491" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="468"/>
-      <c r="B81" s="472"/>
-      <c r="C81" s="459"/>
-      <c r="D81" s="459"/>
-      <c r="E81" s="459"/>
+      <c r="A81" s="489"/>
+      <c r="B81" s="490"/>
+      <c r="C81" s="479"/>
+      <c r="D81" s="479"/>
+      <c r="E81" s="479"/>
       <c r="F81" s="365" t="s">
         <v>152</v>
       </c>
@@ -11812,14 +11812,14 @@
         <f t="shared" ref="O81:O87" si="12">L81</f>
         <v>41850000</v>
       </c>
-      <c r="P81" s="495"/>
+      <c r="P81" s="481"/>
     </row>
     <row r="82" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="468"/>
-      <c r="B82" s="472"/>
-      <c r="C82" s="459"/>
-      <c r="D82" s="459"/>
-      <c r="E82" s="459"/>
+      <c r="A82" s="489"/>
+      <c r="B82" s="490"/>
+      <c r="C82" s="479"/>
+      <c r="D82" s="479"/>
+      <c r="E82" s="479"/>
       <c r="F82" s="365" t="s">
         <v>162</v>
       </c>
@@ -11847,14 +11847,14 @@
         <f t="shared" si="12"/>
         <v>28500000</v>
       </c>
-      <c r="P82" s="495"/>
+      <c r="P82" s="481"/>
     </row>
     <row r="83" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="468"/>
-      <c r="B83" s="472"/>
-      <c r="C83" s="459"/>
-      <c r="D83" s="459"/>
-      <c r="E83" s="459"/>
+      <c r="A83" s="489"/>
+      <c r="B83" s="490"/>
+      <c r="C83" s="479"/>
+      <c r="D83" s="479"/>
+      <c r="E83" s="479"/>
       <c r="F83" s="365" t="s">
         <v>148</v>
       </c>
@@ -11882,14 +11882,14 @@
         <f t="shared" si="12"/>
         <v>58200000</v>
       </c>
-      <c r="P83" s="495"/>
+      <c r="P83" s="481"/>
     </row>
     <row r="84" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="468"/>
-      <c r="B84" s="472"/>
-      <c r="C84" s="459"/>
-      <c r="D84" s="459"/>
-      <c r="E84" s="459"/>
+      <c r="A84" s="489"/>
+      <c r="B84" s="490"/>
+      <c r="C84" s="479"/>
+      <c r="D84" s="479"/>
+      <c r="E84" s="479"/>
       <c r="F84" s="365" t="s">
         <v>164</v>
       </c>
@@ -11917,14 +11917,14 @@
         <f t="shared" si="12"/>
         <v>14550000</v>
       </c>
-      <c r="P84" s="495"/>
+      <c r="P84" s="481"/>
     </row>
     <row r="85" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="468"/>
-      <c r="B85" s="472"/>
-      <c r="C85" s="459"/>
-      <c r="D85" s="459"/>
-      <c r="E85" s="459"/>
+      <c r="A85" s="489"/>
+      <c r="B85" s="490"/>
+      <c r="C85" s="479"/>
+      <c r="D85" s="479"/>
+      <c r="E85" s="479"/>
       <c r="F85" s="365" t="s">
         <v>187</v>
       </c>
@@ -11952,14 +11952,14 @@
         <f t="shared" si="12"/>
         <v>66000000</v>
       </c>
-      <c r="P85" s="495"/>
+      <c r="P85" s="481"/>
     </row>
     <row r="86" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="468"/>
-      <c r="B86" s="472"/>
-      <c r="C86" s="459"/>
-      <c r="D86" s="459"/>
-      <c r="E86" s="459"/>
+      <c r="A86" s="489"/>
+      <c r="B86" s="490"/>
+      <c r="C86" s="479"/>
+      <c r="D86" s="479"/>
+      <c r="E86" s="479"/>
       <c r="F86" s="365" t="s">
         <v>156</v>
       </c>
@@ -11987,14 +11987,14 @@
         <f t="shared" si="12"/>
         <v>19110000</v>
       </c>
-      <c r="P86" s="495"/>
+      <c r="P86" s="481"/>
     </row>
     <row r="87" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="469"/>
-      <c r="B87" s="471"/>
-      <c r="C87" s="460"/>
-      <c r="D87" s="460"/>
-      <c r="E87" s="460"/>
+      <c r="A87" s="485"/>
+      <c r="B87" s="487"/>
+      <c r="C87" s="480"/>
+      <c r="D87" s="480"/>
+      <c r="E87" s="480"/>
       <c r="F87" s="348" t="s">
         <v>160</v>
       </c>
@@ -12022,22 +12022,22 @@
         <f t="shared" si="12"/>
         <v>54600000</v>
       </c>
-      <c r="P87" s="496"/>
+      <c r="P87" s="494"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="467">
+      <c r="A88" s="484">
         <v>612</v>
       </c>
-      <c r="B88" s="470">
+      <c r="B88" s="486">
         <v>44032</v>
       </c>
-      <c r="C88" s="458" t="s">
+      <c r="C88" s="488" t="s">
         <v>157</v>
       </c>
-      <c r="D88" s="458" t="s">
+      <c r="D88" s="488" t="s">
         <v>157</v>
       </c>
-      <c r="E88" s="458"/>
+      <c r="E88" s="488"/>
       <c r="F88" s="345" t="s">
         <v>155</v>
       </c>
@@ -12065,14 +12065,14 @@
         <f t="shared" ref="O88:O94" si="13">L88</f>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P88" s="494"/>
+      <c r="P88" s="491"/>
     </row>
     <row r="89" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="468"/>
-      <c r="B89" s="472"/>
-      <c r="C89" s="459"/>
-      <c r="D89" s="459"/>
-      <c r="E89" s="459"/>
+      <c r="A89" s="489"/>
+      <c r="B89" s="490"/>
+      <c r="C89" s="479"/>
+      <c r="D89" s="479"/>
+      <c r="E89" s="479"/>
       <c r="F89" s="365" t="s">
         <v>152</v>
       </c>
@@ -12100,14 +12100,14 @@
         <f t="shared" si="13"/>
         <v>3292200.0000000005</v>
       </c>
-      <c r="P89" s="495"/>
+      <c r="P89" s="481"/>
     </row>
     <row r="90" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="468"/>
-      <c r="B90" s="472"/>
-      <c r="C90" s="459"/>
-      <c r="D90" s="459"/>
-      <c r="E90" s="459"/>
+      <c r="A90" s="489"/>
+      <c r="B90" s="490"/>
+      <c r="C90" s="479"/>
+      <c r="D90" s="479"/>
+      <c r="E90" s="479"/>
       <c r="F90" s="365" t="s">
         <v>162</v>
       </c>
@@ -12135,14 +12135,14 @@
         <f t="shared" si="13"/>
         <v>3363000.0000000005</v>
       </c>
-      <c r="P90" s="495"/>
+      <c r="P90" s="481"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="468"/>
-      <c r="B91" s="472"/>
-      <c r="C91" s="459"/>
-      <c r="D91" s="459"/>
-      <c r="E91" s="459"/>
+      <c r="A91" s="489"/>
+      <c r="B91" s="490"/>
+      <c r="C91" s="479"/>
+      <c r="D91" s="479"/>
+      <c r="E91" s="479"/>
       <c r="F91" s="365" t="s">
         <v>164</v>
       </c>
@@ -12170,14 +12170,14 @@
         <f t="shared" si="13"/>
         <v>3433800.0000000005</v>
       </c>
-      <c r="P91" s="495"/>
+      <c r="P91" s="481"/>
     </row>
     <row r="92" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="468"/>
-      <c r="B92" s="472"/>
-      <c r="C92" s="459"/>
-      <c r="D92" s="459"/>
-      <c r="E92" s="459"/>
+      <c r="A92" s="489"/>
+      <c r="B92" s="490"/>
+      <c r="C92" s="479"/>
+      <c r="D92" s="479"/>
+      <c r="E92" s="479"/>
       <c r="F92" s="365" t="s">
         <v>187</v>
       </c>
@@ -12205,14 +12205,14 @@
         <f t="shared" si="13"/>
         <v>3245000.0000000005</v>
       </c>
-      <c r="P92" s="495"/>
+      <c r="P92" s="481"/>
     </row>
     <row r="93" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="468"/>
-      <c r="B93" s="472"/>
-      <c r="C93" s="459"/>
-      <c r="D93" s="459"/>
-      <c r="E93" s="459"/>
+      <c r="A93" s="489"/>
+      <c r="B93" s="490"/>
+      <c r="C93" s="479"/>
+      <c r="D93" s="479"/>
+      <c r="E93" s="479"/>
       <c r="F93" s="365" t="s">
         <v>156</v>
       </c>
@@ -12240,14 +12240,14 @@
         <f t="shared" si="13"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P93" s="495"/>
+      <c r="P93" s="481"/>
     </row>
     <row r="94" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="469"/>
-      <c r="B94" s="471"/>
-      <c r="C94" s="460"/>
-      <c r="D94" s="460"/>
-      <c r="E94" s="460"/>
+      <c r="A94" s="485"/>
+      <c r="B94" s="487"/>
+      <c r="C94" s="480"/>
+      <c r="D94" s="480"/>
+      <c r="E94" s="480"/>
       <c r="F94" s="348" t="s">
         <v>160</v>
       </c>
@@ -12275,20 +12275,20 @@
         <f t="shared" si="13"/>
         <v>3221400.0000000005</v>
       </c>
-      <c r="P94" s="496"/>
+      <c r="P94" s="494"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="467">
+      <c r="A95" s="484">
         <v>613</v>
       </c>
-      <c r="B95" s="470">
+      <c r="B95" s="486">
         <v>44032</v>
       </c>
-      <c r="C95" s="458"/>
-      <c r="D95" s="458" t="s">
+      <c r="C95" s="488"/>
+      <c r="D95" s="488" t="s">
         <v>171</v>
       </c>
-      <c r="E95" s="458" t="s">
+      <c r="E95" s="488" t="s">
         <v>172</v>
       </c>
       <c r="F95" s="345" t="s">
@@ -12325,11 +12325,11 @@
       </c>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="468"/>
-      <c r="B96" s="472"/>
-      <c r="C96" s="459"/>
-      <c r="D96" s="459"/>
-      <c r="E96" s="459"/>
+      <c r="A96" s="489"/>
+      <c r="B96" s="490"/>
+      <c r="C96" s="479"/>
+      <c r="D96" s="479"/>
+      <c r="E96" s="479"/>
       <c r="F96" s="365" t="s">
         <v>152</v>
       </c>
@@ -12360,11 +12360,11 @@
       <c r="P96" s="365"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="468"/>
-      <c r="B97" s="472"/>
-      <c r="C97" s="459"/>
-      <c r="D97" s="459"/>
-      <c r="E97" s="459"/>
+      <c r="A97" s="489"/>
+      <c r="B97" s="490"/>
+      <c r="C97" s="479"/>
+      <c r="D97" s="479"/>
+      <c r="E97" s="479"/>
       <c r="F97" s="365" t="s">
         <v>148</v>
       </c>
@@ -12395,11 +12395,11 @@
       <c r="P97" s="365"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="469"/>
-      <c r="B98" s="471"/>
-      <c r="C98" s="460"/>
-      <c r="D98" s="460"/>
-      <c r="E98" s="460"/>
+      <c r="A98" s="485"/>
+      <c r="B98" s="487"/>
+      <c r="C98" s="480"/>
+      <c r="D98" s="480"/>
+      <c r="E98" s="480"/>
       <c r="F98" s="348" t="s">
         <v>164</v>
       </c>
@@ -12430,17 +12430,17 @@
       <c r="P98" s="348"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="467">
+      <c r="A99" s="484">
         <v>500</v>
       </c>
-      <c r="B99" s="470">
+      <c r="B99" s="486">
         <v>44032</v>
       </c>
-      <c r="C99" s="458"/>
-      <c r="D99" s="458" t="s">
+      <c r="C99" s="488"/>
+      <c r="D99" s="488" t="s">
         <v>202</v>
       </c>
-      <c r="E99" s="458"/>
+      <c r="E99" s="488"/>
       <c r="F99" s="345" t="s">
         <v>155</v>
       </c>
@@ -12471,11 +12471,11 @@
       <c r="P99" s="345"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="469"/>
-      <c r="B100" s="471"/>
-      <c r="C100" s="460"/>
-      <c r="D100" s="460"/>
-      <c r="E100" s="460"/>
+      <c r="A100" s="485"/>
+      <c r="B100" s="487"/>
+      <c r="C100" s="480"/>
+      <c r="D100" s="480"/>
+      <c r="E100" s="480"/>
       <c r="F100" s="348" t="s">
         <v>148</v>
       </c>
@@ -12506,17 +12506,17 @@
       <c r="P100" s="348"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="467">
+      <c r="A101" s="484">
         <v>619</v>
       </c>
-      <c r="B101" s="470">
+      <c r="B101" s="486">
         <v>44034</v>
       </c>
-      <c r="C101" s="458"/>
-      <c r="D101" s="458" t="s">
+      <c r="C101" s="488"/>
+      <c r="D101" s="488" t="s">
         <v>209</v>
       </c>
-      <c r="E101" s="458" t="s">
+      <c r="E101" s="488" t="s">
         <v>210</v>
       </c>
       <c r="F101" s="345" t="s">
@@ -12549,11 +12549,11 @@
       <c r="P101" s="345"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="469"/>
-      <c r="B102" s="471"/>
-      <c r="C102" s="460"/>
-      <c r="D102" s="460"/>
-      <c r="E102" s="460"/>
+      <c r="A102" s="485"/>
+      <c r="B102" s="487"/>
+      <c r="C102" s="480"/>
+      <c r="D102" s="480"/>
+      <c r="E102" s="480"/>
       <c r="F102" s="348" t="s">
         <v>162</v>
       </c>
@@ -12584,17 +12584,17 @@
       <c r="P102" s="348"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="467">
+      <c r="A103" s="484">
         <v>620</v>
       </c>
-      <c r="B103" s="470">
+      <c r="B103" s="486">
         <v>44036</v>
       </c>
-      <c r="C103" s="458"/>
-      <c r="D103" s="458" t="s">
+      <c r="C103" s="488"/>
+      <c r="D103" s="488" t="s">
         <v>197</v>
       </c>
-      <c r="E103" s="458" t="s">
+      <c r="E103" s="488" t="s">
         <v>211</v>
       </c>
       <c r="F103" s="345" t="s">
@@ -12627,11 +12627,11 @@
       <c r="P103" s="345"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="468"/>
-      <c r="B104" s="472"/>
-      <c r="C104" s="459"/>
-      <c r="D104" s="459"/>
-      <c r="E104" s="459"/>
+      <c r="A104" s="489"/>
+      <c r="B104" s="490"/>
+      <c r="C104" s="479"/>
+      <c r="D104" s="479"/>
+      <c r="E104" s="479"/>
       <c r="F104" s="365" t="s">
         <v>152</v>
       </c>
@@ -12662,11 +12662,11 @@
       <c r="P104" s="365"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="469"/>
-      <c r="B105" s="471"/>
-      <c r="C105" s="460"/>
-      <c r="D105" s="460"/>
-      <c r="E105" s="460"/>
+      <c r="A105" s="485"/>
+      <c r="B105" s="487"/>
+      <c r="C105" s="480"/>
+      <c r="D105" s="480"/>
+      <c r="E105" s="480"/>
       <c r="F105" s="348" t="s">
         <v>162</v>
       </c>
@@ -12697,19 +12697,19 @@
       <c r="P105" s="348"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="488">
+      <c r="A106" s="493">
         <v>622</v>
       </c>
-      <c r="B106" s="499">
+      <c r="B106" s="492">
         <v>44040</v>
       </c>
-      <c r="C106" s="494" t="s">
+      <c r="C106" s="491" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="494" t="s">
+      <c r="D106" s="491" t="s">
         <v>212</v>
       </c>
-      <c r="E106" s="494" t="s">
+      <c r="E106" s="491" t="s">
         <v>213</v>
       </c>
       <c r="F106" s="345" t="s">
@@ -12727,28 +12727,28 @@
       </c>
       <c r="J106" s="388"/>
       <c r="K106" s="347">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="L106" s="346">
         <f t="shared" si="8"/>
-        <v>6584400.0000000009</v>
+        <v>6919200</v>
       </c>
       <c r="M106" s="346"/>
       <c r="N106" s="346"/>
       <c r="O106" s="346">
         <f t="shared" si="15"/>
-        <v>6584400.0000000009</v>
-      </c>
-      <c r="P106" s="497" t="s">
+        <v>6919200</v>
+      </c>
+      <c r="P106" s="475" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="489"/>
-      <c r="B107" s="500"/>
-      <c r="C107" s="495"/>
-      <c r="D107" s="495"/>
-      <c r="E107" s="495"/>
+      <c r="A107" s="483"/>
+      <c r="B107" s="482"/>
+      <c r="C107" s="481"/>
+      <c r="D107" s="481"/>
+      <c r="E107" s="481"/>
       <c r="F107" s="365" t="s">
         <v>162</v>
       </c>
@@ -12764,26 +12764,26 @@
       </c>
       <c r="J107" s="368"/>
       <c r="K107" s="367">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="L107" s="46">
         <f t="shared" si="8"/>
-        <v>10089000.000000002</v>
+        <v>10602000</v>
       </c>
       <c r="M107" s="46"/>
       <c r="N107" s="46"/>
       <c r="O107" s="46">
         <f t="shared" si="15"/>
-        <v>10089000.000000002</v>
-      </c>
-      <c r="P107" s="498"/>
+        <v>10602000</v>
+      </c>
+      <c r="P107" s="476"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="489"/>
-      <c r="B108" s="500"/>
-      <c r="C108" s="495"/>
-      <c r="D108" s="495"/>
-      <c r="E108" s="495"/>
+      <c r="A108" s="483"/>
+      <c r="B108" s="482"/>
+      <c r="C108" s="481"/>
+      <c r="D108" s="481"/>
+      <c r="E108" s="481"/>
       <c r="F108" s="365" t="s">
         <v>164</v>
       </c>
@@ -12799,26 +12799,26 @@
       </c>
       <c r="J108" s="368"/>
       <c r="K108" s="367">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="L108" s="46">
         <f t="shared" si="8"/>
-        <v>6867600.0000000009</v>
+        <v>7216800</v>
       </c>
       <c r="M108" s="46"/>
       <c r="N108" s="46"/>
       <c r="O108" s="46">
         <f t="shared" si="15"/>
-        <v>6867600.0000000009</v>
-      </c>
-      <c r="P108" s="498"/>
+        <v>7216800</v>
+      </c>
+      <c r="P108" s="476"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="489"/>
-      <c r="B109" s="500"/>
-      <c r="C109" s="495"/>
-      <c r="D109" s="495"/>
-      <c r="E109" s="495"/>
+      <c r="A109" s="483"/>
+      <c r="B109" s="482"/>
+      <c r="C109" s="481"/>
+      <c r="D109" s="481"/>
+      <c r="E109" s="481"/>
       <c r="F109" s="365" t="s">
         <v>187</v>
       </c>
@@ -12834,26 +12834,26 @@
       </c>
       <c r="J109" s="368"/>
       <c r="K109" s="367">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="L109" s="46">
         <f t="shared" si="8"/>
-        <v>15576000.000000002</v>
+        <v>16368000</v>
       </c>
       <c r="M109" s="46"/>
       <c r="N109" s="46"/>
       <c r="O109" s="46">
         <f t="shared" si="15"/>
-        <v>15576000.000000002</v>
-      </c>
-      <c r="P109" s="498"/>
+        <v>16368000</v>
+      </c>
+      <c r="P109" s="476"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="489"/>
-      <c r="B110" s="500"/>
-      <c r="C110" s="495"/>
-      <c r="D110" s="495"/>
-      <c r="E110" s="495"/>
+      <c r="A110" s="483"/>
+      <c r="B110" s="482"/>
+      <c r="C110" s="481"/>
+      <c r="D110" s="481"/>
+      <c r="E110" s="481"/>
       <c r="F110" s="365" t="s">
         <v>156</v>
       </c>
@@ -12869,26 +12869,26 @@
       </c>
       <c r="J110" s="368"/>
       <c r="K110" s="367">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="L110" s="46">
         <f t="shared" si="8"/>
-        <v>12885600.000000002</v>
+        <v>13540800</v>
       </c>
       <c r="M110" s="46"/>
       <c r="N110" s="46"/>
       <c r="O110" s="46">
         <f t="shared" si="15"/>
-        <v>12885600.000000002</v>
-      </c>
-      <c r="P110" s="498"/>
+        <v>13540800</v>
+      </c>
+      <c r="P110" s="476"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="489"/>
-      <c r="B111" s="500"/>
-      <c r="C111" s="495"/>
-      <c r="D111" s="495"/>
-      <c r="E111" s="495"/>
+      <c r="A111" s="483"/>
+      <c r="B111" s="482"/>
+      <c r="C111" s="481"/>
+      <c r="D111" s="481"/>
+      <c r="E111" s="481"/>
       <c r="F111" s="389" t="s">
         <v>160</v>
       </c>
@@ -12904,32 +12904,32 @@
       </c>
       <c r="J111" s="390"/>
       <c r="K111" s="391">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="L111" s="51">
         <f t="shared" si="8"/>
-        <v>9664200.0000000019</v>
+        <v>10155600</v>
       </c>
       <c r="M111" s="51"/>
       <c r="N111" s="51"/>
       <c r="O111" s="51">
         <f t="shared" si="15"/>
-        <v>9664200.0000000019</v>
-      </c>
-      <c r="P111" s="498"/>
+        <v>10155600</v>
+      </c>
+      <c r="P111" s="476"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="467">
+      <c r="A112" s="484">
         <v>623</v>
       </c>
-      <c r="B112" s="470">
+      <c r="B112" s="486">
         <v>44041</v>
       </c>
-      <c r="C112" s="458"/>
-      <c r="D112" s="458" t="s">
+      <c r="C112" s="488"/>
+      <c r="D112" s="488" t="s">
         <v>215</v>
       </c>
-      <c r="E112" s="458" t="s">
+      <c r="E112" s="488" t="s">
         <v>216</v>
       </c>
       <c r="F112" s="345" t="s">
@@ -12962,11 +12962,11 @@
       <c r="P112" s="363"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="469"/>
-      <c r="B113" s="471"/>
-      <c r="C113" s="460"/>
-      <c r="D113" s="460"/>
-      <c r="E113" s="460"/>
+      <c r="A113" s="485"/>
+      <c r="B113" s="487"/>
+      <c r="C113" s="480"/>
+      <c r="D113" s="480"/>
+      <c r="E113" s="480"/>
       <c r="F113" s="348" t="s">
         <v>148</v>
       </c>
@@ -12997,17 +12997,17 @@
       <c r="P113" s="364"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="467">
+      <c r="A114" s="484">
         <v>624</v>
       </c>
-      <c r="B114" s="470">
+      <c r="B114" s="486">
         <v>44041</v>
       </c>
-      <c r="C114" s="458"/>
-      <c r="D114" s="458" t="s">
+      <c r="C114" s="488"/>
+      <c r="D114" s="488" t="s">
         <v>217</v>
       </c>
-      <c r="E114" s="458" t="s">
+      <c r="E114" s="488" t="s">
         <v>211</v>
       </c>
       <c r="F114" s="345" t="s">
@@ -13040,11 +13040,11 @@
       <c r="P114" s="363"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="469"/>
-      <c r="B115" s="471"/>
-      <c r="C115" s="460"/>
-      <c r="D115" s="460"/>
-      <c r="E115" s="460"/>
+      <c r="A115" s="485"/>
+      <c r="B115" s="487"/>
+      <c r="C115" s="480"/>
+      <c r="D115" s="480"/>
+      <c r="E115" s="480"/>
       <c r="F115" s="348" t="s">
         <v>155</v>
       </c>
@@ -13118,19 +13118,19 @@
       <c r="P116" s="354"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="489">
+      <c r="A117" s="483">
         <v>626</v>
       </c>
-      <c r="B117" s="500">
+      <c r="B117" s="482">
         <v>44043</v>
       </c>
-      <c r="C117" s="495" t="s">
+      <c r="C117" s="481" t="s">
         <v>153</v>
       </c>
-      <c r="D117" s="502" t="s">
+      <c r="D117" s="478" t="s">
         <v>219</v>
       </c>
-      <c r="E117" s="502" t="s">
+      <c r="E117" s="478" t="s">
         <v>194</v>
       </c>
       <c r="F117" s="372" t="s">
@@ -13160,16 +13160,16 @@
         <v>6584400.0000000009</v>
       </c>
       <c r="O117" s="76"/>
-      <c r="P117" s="497" t="s">
+      <c r="P117" s="475" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="489"/>
-      <c r="B118" s="500"/>
-      <c r="C118" s="495"/>
-      <c r="D118" s="459"/>
-      <c r="E118" s="459"/>
+      <c r="A118" s="483"/>
+      <c r="B118" s="482"/>
+      <c r="C118" s="481"/>
+      <c r="D118" s="479"/>
+      <c r="E118" s="479"/>
       <c r="F118" s="365" t="s">
         <v>162</v>
       </c>
@@ -13197,14 +13197,14 @@
         <v>3363000.0000000005</v>
       </c>
       <c r="O118" s="46"/>
-      <c r="P118" s="498"/>
+      <c r="P118" s="476"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="489"/>
-      <c r="B119" s="500"/>
-      <c r="C119" s="495"/>
-      <c r="D119" s="459"/>
-      <c r="E119" s="459"/>
+      <c r="A119" s="483"/>
+      <c r="B119" s="482"/>
+      <c r="C119" s="481"/>
+      <c r="D119" s="479"/>
+      <c r="E119" s="479"/>
       <c r="F119" s="365" t="s">
         <v>148</v>
       </c>
@@ -13232,14 +13232,14 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="O119" s="46"/>
-      <c r="P119" s="498"/>
+      <c r="P119" s="476"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="489"/>
-      <c r="B120" s="500"/>
-      <c r="C120" s="495"/>
-      <c r="D120" s="460"/>
-      <c r="E120" s="460"/>
+      <c r="A120" s="483"/>
+      <c r="B120" s="482"/>
+      <c r="C120" s="481"/>
+      <c r="D120" s="480"/>
+      <c r="E120" s="480"/>
       <c r="F120" s="348" t="s">
         <v>156</v>
       </c>
@@ -13267,20 +13267,20 @@
         <v>3221400.0000000005</v>
       </c>
       <c r="O120" s="55"/>
-      <c r="P120" s="501"/>
+      <c r="P120" s="477"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="467">
+      <c r="A121" s="484">
         <v>627</v>
       </c>
-      <c r="B121" s="470">
+      <c r="B121" s="486">
         <v>44043</v>
       </c>
-      <c r="C121" s="458"/>
-      <c r="D121" s="458" t="s">
+      <c r="C121" s="488"/>
+      <c r="D121" s="488" t="s">
         <v>209</v>
       </c>
-      <c r="E121" s="458" t="s">
+      <c r="E121" s="488" t="s">
         <v>210</v>
       </c>
       <c r="F121" s="345" t="s">
@@ -13313,11 +13313,11 @@
       <c r="P121" s="363"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="469"/>
-      <c r="B122" s="471"/>
-      <c r="C122" s="460"/>
-      <c r="D122" s="460"/>
-      <c r="E122" s="460"/>
+      <c r="A122" s="485"/>
+      <c r="B122" s="487"/>
+      <c r="C122" s="480"/>
+      <c r="D122" s="480"/>
+      <c r="E122" s="480"/>
       <c r="F122" s="348" t="s">
         <v>148</v>
       </c>
@@ -13348,14 +13348,14 @@
       <c r="P122" s="348"/>
     </row>
     <row r="123" spans="1:17" s="400" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="456" t="s">
+      <c r="A123" s="522" t="s">
         <v>76</v>
       </c>
-      <c r="B123" s="456"/>
-      <c r="C123" s="456"/>
-      <c r="D123" s="456"/>
-      <c r="E123" s="456"/>
-      <c r="F123" s="456"/>
+      <c r="B123" s="522"/>
+      <c r="C123" s="522"/>
+      <c r="D123" s="522"/>
+      <c r="E123" s="522"/>
+      <c r="F123" s="522"/>
       <c r="G123" s="393">
         <f>SUM(G9:G122)</f>
         <v>2563</v>
@@ -13369,23 +13369,23 @@
       <c r="K123" s="397"/>
       <c r="L123" s="398">
         <f>SUM(L9:L122)</f>
-        <v>621755450</v>
+        <v>624891050</v>
       </c>
       <c r="M123" s="399"/>
       <c r="N123" s="399"/>
       <c r="O123" s="399"/>
-      <c r="P123" s="457"/>
-      <c r="Q123" s="454"/>
+      <c r="P123" s="523"/>
+      <c r="Q123" s="520"/>
     </row>
     <row r="124" spans="1:17" s="400" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="455" t="s">
+      <c r="A124" s="521" t="s">
         <v>134</v>
       </c>
-      <c r="B124" s="455"/>
-      <c r="C124" s="455"/>
-      <c r="D124" s="455"/>
-      <c r="E124" s="455"/>
-      <c r="F124" s="455"/>
+      <c r="B124" s="521"/>
+      <c r="C124" s="521"/>
+      <c r="D124" s="521"/>
+      <c r="E124" s="521"/>
+      <c r="F124" s="521"/>
       <c r="G124" s="401">
         <f>G123</f>
         <v>2563</v>
@@ -13396,23 +13396,23 @@
       <c r="K124" s="404"/>
       <c r="L124" s="405">
         <f>L123</f>
-        <v>621755450</v>
+        <v>624891050</v>
       </c>
       <c r="M124" s="403"/>
       <c r="N124" s="403"/>
       <c r="O124" s="403"/>
-      <c r="P124" s="457"/>
-      <c r="Q124" s="454"/>
+      <c r="P124" s="523"/>
+      <c r="Q124" s="520"/>
     </row>
     <row r="125" spans="1:17" s="400" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="455" t="s">
+      <c r="A125" s="521" t="s">
         <v>77</v>
       </c>
-      <c r="B125" s="455"/>
-      <c r="C125" s="455"/>
-      <c r="D125" s="455"/>
-      <c r="E125" s="455"/>
-      <c r="F125" s="455"/>
+      <c r="B125" s="521"/>
+      <c r="C125" s="521"/>
+      <c r="D125" s="521"/>
+      <c r="E125" s="521"/>
+      <c r="F125" s="521"/>
       <c r="G125" s="331" t="s">
         <v>48</v>
       </c>
@@ -13429,14 +13429,14 @@
       <c r="O125" s="403"/>
     </row>
     <row r="126" spans="1:17" s="400" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="455" t="s">
+      <c r="A126" s="521" t="s">
         <v>78</v>
       </c>
-      <c r="B126" s="455"/>
-      <c r="C126" s="455"/>
-      <c r="D126" s="455"/>
-      <c r="E126" s="455"/>
-      <c r="F126" s="455"/>
+      <c r="B126" s="521"/>
+      <c r="C126" s="521"/>
+      <c r="D126" s="521"/>
+      <c r="E126" s="521"/>
+      <c r="F126" s="521"/>
       <c r="G126" s="331"/>
       <c r="H126" s="332"/>
       <c r="I126" s="406"/>
@@ -13451,14 +13451,14 @@
       <c r="O126" s="403"/>
     </row>
     <row r="127" spans="1:17" s="400" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="455" t="s">
+      <c r="A127" s="521" t="s">
         <v>79</v>
       </c>
-      <c r="B127" s="455"/>
-      <c r="C127" s="455"/>
-      <c r="D127" s="455"/>
-      <c r="E127" s="455"/>
-      <c r="F127" s="455"/>
+      <c r="B127" s="521"/>
+      <c r="C127" s="521"/>
+      <c r="D127" s="521"/>
+      <c r="E127" s="521"/>
+      <c r="F127" s="521"/>
       <c r="G127" s="331"/>
       <c r="H127" s="332"/>
       <c r="I127" s="406"/>
@@ -13466,7 +13466,7 @@
       <c r="K127" s="404"/>
       <c r="L127" s="405">
         <f>SUM(O9:O122)</f>
-        <v>529361800</v>
+        <v>532497400</v>
       </c>
       <c r="M127" s="403"/>
       <c r="N127" s="403"/>
@@ -13531,143 +13531,6 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="161">
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="E117:E120"/>
-    <mergeCell ref="D117:D120"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="P106:P111"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="D106:D111"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="P88:P94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="D88:D94"/>
-    <mergeCell ref="E88:E94"/>
-    <mergeCell ref="P80:P87"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="D80:D87"/>
-    <mergeCell ref="E80:E87"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="D54:D60"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="Q123:Q124"/>
     <mergeCell ref="A124:F124"/>
     <mergeCell ref="A125:F125"/>
@@ -13692,6 +13555,143 @@
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="D80:D87"/>
+    <mergeCell ref="E80:E87"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="P88:P94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="D88:D94"/>
+    <mergeCell ref="E88:E94"/>
+    <mergeCell ref="P80:P87"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="P106:P111"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="D117:D120"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
   </mergeCells>
   <pageMargins left="0.18" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -13702,7 +13702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
@@ -13723,93 +13723,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="511" t="s">
+      <c r="A1" s="546" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="511"/>
-      <c r="C1" s="511"/>
-      <c r="D1" s="511"/>
+      <c r="B1" s="546"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="512" t="s">
+      <c r="A2" s="547" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="512"/>
-      <c r="C2" s="512"/>
-      <c r="D2" s="512"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="514" t="s">
+      <c r="A3" s="525" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="514"/>
-      <c r="C3" s="514"/>
-      <c r="D3" s="514"/>
-      <c r="E3" s="514"/>
-      <c r="F3" s="514"/>
-      <c r="G3" s="514"/>
-      <c r="H3" s="514"/>
-      <c r="I3" s="514"/>
-      <c r="J3" s="514"/>
-      <c r="K3" s="514"/>
-      <c r="L3" s="514"/>
-      <c r="M3" s="514"/>
-      <c r="N3" s="514"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="525"/>
+      <c r="D3" s="525"/>
+      <c r="E3" s="525"/>
+      <c r="F3" s="525"/>
+      <c r="G3" s="525"/>
+      <c r="H3" s="525"/>
+      <c r="I3" s="525"/>
+      <c r="J3" s="525"/>
+      <c r="K3" s="525"/>
+      <c r="L3" s="525"/>
+      <c r="M3" s="525"/>
+      <c r="N3" s="525"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="515" t="s">
+      <c r="A4" s="526" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="515"/>
-      <c r="C4" s="515"/>
-      <c r="D4" s="515"/>
-      <c r="E4" s="515"/>
-      <c r="F4" s="515"/>
-      <c r="G4" s="515"/>
-      <c r="H4" s="515"/>
-      <c r="I4" s="516"/>
-      <c r="J4" s="515"/>
-      <c r="K4" s="515"/>
-      <c r="L4" s="515"/>
-      <c r="M4" s="515"/>
-      <c r="N4" s="515"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="526"/>
+      <c r="D4" s="526"/>
+      <c r="E4" s="526"/>
+      <c r="F4" s="526"/>
+      <c r="G4" s="526"/>
+      <c r="H4" s="526"/>
+      <c r="I4" s="527"/>
+      <c r="J4" s="526"/>
+      <c r="K4" s="526"/>
+      <c r="L4" s="526"/>
+      <c r="M4" s="526"/>
+      <c r="N4" s="526"/>
     </row>
     <row r="5" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="517" t="s">
+      <c r="A5" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="518" t="s">
+      <c r="B5" s="529" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="519" t="s">
+      <c r="C5" s="530" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="296" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="520" t="s">
+      <c r="E5" s="531" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="520"/>
-      <c r="G5" s="520"/>
-      <c r="H5" s="520"/>
-      <c r="I5" s="521"/>
-      <c r="J5" s="522" t="s">
+      <c r="F5" s="531"/>
+      <c r="G5" s="531"/>
+      <c r="H5" s="531"/>
+      <c r="I5" s="532"/>
+      <c r="J5" s="533" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="520" t="s">
+      <c r="K5" s="531" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="520"/>
-      <c r="M5" s="520"/>
-      <c r="N5" s="519" t="s">
+      <c r="L5" s="531"/>
+      <c r="M5" s="531"/>
+      <c r="N5" s="530" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="517"/>
-      <c r="B6" s="518"/>
-      <c r="C6" s="519"/>
+      <c r="A6" s="528"/>
+      <c r="B6" s="529"/>
+      <c r="C6" s="530"/>
       <c r="D6" s="293" t="s">
         <v>40</v>
       </c>
@@ -13828,7 +13828,7 @@
       <c r="I6" s="295" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="522"/>
+      <c r="J6" s="533"/>
       <c r="K6" s="293" t="s">
         <v>44</v>
       </c>
@@ -13838,17 +13838,17 @@
       <c r="M6" s="293" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="519"/>
+      <c r="N6" s="530"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="507">
+      <c r="A7" s="534">
         <v>492</v>
       </c>
-      <c r="B7" s="505">
+      <c r="B7" s="538">
         <v>44020</v>
       </c>
-      <c r="C7" s="503"/>
-      <c r="D7" s="503" t="s">
+      <c r="C7" s="542"/>
+      <c r="D7" s="542" t="s">
         <v>163</v>
       </c>
       <c r="E7" s="191" t="s">
@@ -13880,10 +13880,10 @@
       <c r="N7" s="194"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="523"/>
-      <c r="B8" s="509"/>
-      <c r="C8" s="510"/>
-      <c r="D8" s="510"/>
+      <c r="A8" s="535"/>
+      <c r="B8" s="539"/>
+      <c r="C8" s="543"/>
+      <c r="D8" s="543"/>
       <c r="E8" s="195" t="s">
         <v>155</v>
       </c>
@@ -13913,10 +13913,10 @@
       <c r="N8" s="199"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="523"/>
-      <c r="B9" s="509"/>
-      <c r="C9" s="510"/>
-      <c r="D9" s="510"/>
+      <c r="A9" s="535"/>
+      <c r="B9" s="539"/>
+      <c r="C9" s="543"/>
+      <c r="D9" s="543"/>
       <c r="E9" s="195" t="s">
         <v>152</v>
       </c>
@@ -13946,10 +13946,10 @@
       <c r="N9" s="199"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="523"/>
-      <c r="B10" s="509"/>
-      <c r="C10" s="510"/>
-      <c r="D10" s="510"/>
+      <c r="A10" s="535"/>
+      <c r="B10" s="539"/>
+      <c r="C10" s="543"/>
+      <c r="D10" s="543"/>
       <c r="E10" s="195" t="s">
         <v>162</v>
       </c>
@@ -13979,10 +13979,10 @@
       <c r="N10" s="199"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="523"/>
-      <c r="B11" s="509"/>
-      <c r="C11" s="510"/>
-      <c r="D11" s="510"/>
+      <c r="A11" s="535"/>
+      <c r="B11" s="539"/>
+      <c r="C11" s="543"/>
+      <c r="D11" s="543"/>
       <c r="E11" s="195" t="s">
         <v>148</v>
       </c>
@@ -14012,10 +14012,10 @@
       <c r="N11" s="195"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="523"/>
-      <c r="B12" s="509"/>
-      <c r="C12" s="510"/>
-      <c r="D12" s="510"/>
+      <c r="A12" s="535"/>
+      <c r="B12" s="539"/>
+      <c r="C12" s="543"/>
+      <c r="D12" s="543"/>
       <c r="E12" s="195" t="s">
         <v>164</v>
       </c>
@@ -14047,10 +14047,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="524"/>
-      <c r="B13" s="525"/>
-      <c r="C13" s="526"/>
-      <c r="D13" s="526"/>
+      <c r="A13" s="536"/>
+      <c r="B13" s="540"/>
+      <c r="C13" s="544"/>
+      <c r="D13" s="544"/>
       <c r="E13" s="317" t="s">
         <v>156</v>
       </c>
@@ -14080,10 +14080,10 @@
       <c r="N13" s="321"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="508"/>
-      <c r="B14" s="506"/>
-      <c r="C14" s="504"/>
-      <c r="D14" s="504"/>
+      <c r="A14" s="537"/>
+      <c r="B14" s="541"/>
+      <c r="C14" s="545"/>
+      <c r="D14" s="545"/>
       <c r="E14" s="200" t="s">
         <v>160</v>
       </c>
@@ -14113,14 +14113,14 @@
       <c r="N14" s="203"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="507">
+      <c r="A15" s="534">
         <v>494</v>
       </c>
-      <c r="B15" s="505">
+      <c r="B15" s="538">
         <v>44020</v>
       </c>
-      <c r="C15" s="503"/>
-      <c r="D15" s="503" t="s">
+      <c r="C15" s="542"/>
+      <c r="D15" s="542" t="s">
         <v>165</v>
       </c>
       <c r="E15" s="191" t="s">
@@ -14152,10 +14152,10 @@
       <c r="N15" s="194"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="523"/>
-      <c r="B16" s="509"/>
-      <c r="C16" s="510"/>
-      <c r="D16" s="510"/>
+      <c r="A16" s="535"/>
+      <c r="B16" s="539"/>
+      <c r="C16" s="543"/>
+      <c r="D16" s="543"/>
       <c r="E16" s="195" t="s">
         <v>168</v>
       </c>
@@ -14185,10 +14185,10 @@
       <c r="N16" s="199"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="508"/>
-      <c r="B17" s="506"/>
-      <c r="C17" s="504"/>
-      <c r="D17" s="504"/>
+      <c r="A17" s="537"/>
+      <c r="B17" s="541"/>
+      <c r="C17" s="545"/>
+      <c r="D17" s="545"/>
       <c r="E17" s="200" t="s">
         <v>169</v>
       </c>
@@ -14218,14 +14218,14 @@
       <c r="N17" s="203"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="507">
+      <c r="A18" s="534">
         <v>1194</v>
       </c>
-      <c r="B18" s="505">
+      <c r="B18" s="538">
         <v>44021</v>
       </c>
-      <c r="C18" s="503"/>
-      <c r="D18" s="503" t="s">
+      <c r="C18" s="542"/>
+      <c r="D18" s="542" t="s">
         <v>174</v>
       </c>
       <c r="E18" s="191" t="s">
@@ -14257,10 +14257,10 @@
       <c r="N18" s="194"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="523"/>
-      <c r="B19" s="509"/>
-      <c r="C19" s="510"/>
-      <c r="D19" s="510"/>
+      <c r="A19" s="535"/>
+      <c r="B19" s="539"/>
+      <c r="C19" s="543"/>
+      <c r="D19" s="543"/>
       <c r="E19" s="195" t="s">
         <v>164</v>
       </c>
@@ -14290,10 +14290,10 @@
       <c r="N19" s="199"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="523"/>
-      <c r="B20" s="509"/>
-      <c r="C20" s="510"/>
-      <c r="D20" s="510"/>
+      <c r="A20" s="535"/>
+      <c r="B20" s="539"/>
+      <c r="C20" s="543"/>
+      <c r="D20" s="543"/>
       <c r="E20" s="195" t="s">
         <v>156</v>
       </c>
@@ -14323,10 +14323,10 @@
       <c r="N20" s="199"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="508"/>
-      <c r="B21" s="506"/>
-      <c r="C21" s="504"/>
-      <c r="D21" s="504"/>
+      <c r="A21" s="537"/>
+      <c r="B21" s="541"/>
+      <c r="C21" s="545"/>
+      <c r="D21" s="545"/>
       <c r="E21" s="200" t="s">
         <v>160</v>
       </c>
@@ -14512,14 +14512,14 @@
       <c r="N25" s="117"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="507">
+      <c r="A26" s="534">
         <v>617</v>
       </c>
-      <c r="B26" s="505">
+      <c r="B26" s="538">
         <v>44034</v>
       </c>
-      <c r="C26" s="503"/>
-      <c r="D26" s="503" t="s">
+      <c r="C26" s="542"/>
+      <c r="D26" s="542" t="s">
         <v>163</v>
       </c>
       <c r="E26" s="191" t="s">
@@ -14551,10 +14551,10 @@
       <c r="N26" s="194"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="508"/>
-      <c r="B27" s="506"/>
-      <c r="C27" s="504"/>
-      <c r="D27" s="504"/>
+      <c r="A27" s="537"/>
+      <c r="B27" s="541"/>
+      <c r="C27" s="545"/>
+      <c r="D27" s="545"/>
       <c r="E27" s="200" t="s">
         <v>155</v>
       </c>
@@ -14662,12 +14662,12 @@
       <c r="N29" s="117"/>
     </row>
     <row r="30" spans="1:14" s="111" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="513" t="s">
+      <c r="A30" s="524" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="513"/>
-      <c r="C30" s="513"/>
-      <c r="D30" s="513"/>
+      <c r="B30" s="524"/>
+      <c r="C30" s="524"/>
+      <c r="D30" s="524"/>
       <c r="E30" s="107"/>
       <c r="F30" s="107">
         <f>SUM(F7:F29)</f>
@@ -14751,6 +14751,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
@@ -14767,18 +14779,6 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="D7:D14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
   </mergeCells>
   <pageMargins left="0.28999999999999998" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14867,14 +14867,14 @@
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="527" t="s">
+      <c r="A4" s="548" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="527"/>
-      <c r="C4" s="527"/>
-      <c r="D4" s="527"/>
-      <c r="E4" s="527"/>
-      <c r="F4" s="527"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="548"/>
+      <c r="D4" s="548"/>
+      <c r="E4" s="548"/>
+      <c r="F4" s="548"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
@@ -14888,14 +14888,14 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="528" t="s">
+      <c r="A5" s="549" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="528"/>
-      <c r="C5" s="528"/>
-      <c r="D5" s="528"/>
-      <c r="E5" s="528"/>
-      <c r="F5" s="528"/>
+      <c r="B5" s="549"/>
+      <c r="C5" s="549"/>
+      <c r="D5" s="549"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="20"/>
@@ -14995,7 +14995,7 @@
       <c r="C9" s="427"/>
       <c r="D9" s="428">
         <f>'DOANH THU'!L123</f>
-        <v>621755450</v>
+        <v>624891050</v>
       </c>
       <c r="E9" s="426"/>
       <c r="F9" s="58"/>
@@ -15119,7 +15119,7 @@
       <c r="C14" s="430"/>
       <c r="D14" s="431">
         <f>D9-D10-D11-D13</f>
-        <v>461442400</v>
+        <v>464578000</v>
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="58"/>
@@ -15320,10 +15320,10 @@
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="529" t="s">
+      <c r="A27" s="550" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="529"/>
+      <c r="B27" s="550"/>
       <c r="C27" s="31"/>
       <c r="D27" s="216">
         <f>C26-D26</f>
@@ -15403,13 +15403,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="556" t="s">
+      <c r="A1" s="564" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="556"/>
-      <c r="C1" s="556"/>
-      <c r="D1" s="556"/>
-      <c r="E1" s="556"/>
+      <c r="B1" s="564"/>
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="564"/>
       <c r="F1" s="60"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
@@ -15437,92 +15437,92 @@
       <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="539" t="s">
+      <c r="A4" s="559" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="539"/>
-      <c r="C4" s="539"/>
-      <c r="D4" s="539"/>
-      <c r="E4" s="539"/>
-      <c r="F4" s="539"/>
-      <c r="G4" s="539"/>
-      <c r="H4" s="539"/>
-      <c r="I4" s="539"/>
-      <c r="J4" s="539"/>
-      <c r="K4" s="539"/>
-      <c r="L4" s="539"/>
+      <c r="B4" s="559"/>
+      <c r="C4" s="559"/>
+      <c r="D4" s="559"/>
+      <c r="E4" s="559"/>
+      <c r="F4" s="559"/>
+      <c r="G4" s="559"/>
+      <c r="H4" s="559"/>
+      <c r="I4" s="559"/>
+      <c r="J4" s="559"/>
+      <c r="K4" s="559"/>
+      <c r="L4" s="559"/>
     </row>
     <row r="5" spans="1:13" s="118" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="540" t="s">
+      <c r="A5" s="551" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="546" t="s">
+      <c r="B5" s="570" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="540" t="s">
+      <c r="C5" s="551" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="540" t="s">
+      <c r="D5" s="551" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="540"/>
-      <c r="F5" s="545" t="s">
+      <c r="E5" s="551"/>
+      <c r="F5" s="569" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="545"/>
-      <c r="H5" s="545"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="545"/>
-      <c r="L5" s="545"/>
+      <c r="G5" s="569"/>
+      <c r="H5" s="569"/>
+      <c r="I5" s="569"/>
+      <c r="J5" s="569"/>
+      <c r="K5" s="569"/>
+      <c r="L5" s="569"/>
     </row>
     <row r="6" spans="1:13" s="118" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="540"/>
-      <c r="B6" s="546"/>
-      <c r="C6" s="540"/>
-      <c r="D6" s="540" t="s">
+      <c r="A6" s="551"/>
+      <c r="B6" s="570"/>
+      <c r="C6" s="551"/>
+      <c r="D6" s="551" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="540" t="s">
+      <c r="E6" s="551" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="540" t="s">
+      <c r="F6" s="551" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="540" t="s">
+      <c r="G6" s="551" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="544" t="s">
+      <c r="H6" s="552" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="544" t="s">
+      <c r="I6" s="552" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="547" t="s">
+      <c r="J6" s="565" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="547"/>
-      <c r="L6" s="544" t="s">
+      <c r="K6" s="565"/>
+      <c r="L6" s="552" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="540"/>
-      <c r="B7" s="546"/>
-      <c r="C7" s="540"/>
-      <c r="D7" s="540"/>
-      <c r="E7" s="540"/>
-      <c r="F7" s="540"/>
-      <c r="G7" s="540"/>
-      <c r="H7" s="544"/>
-      <c r="I7" s="544"/>
+      <c r="A7" s="551"/>
+      <c r="B7" s="570"/>
+      <c r="C7" s="551"/>
+      <c r="D7" s="551"/>
+      <c r="E7" s="551"/>
+      <c r="F7" s="551"/>
+      <c r="G7" s="551"/>
+      <c r="H7" s="552"/>
+      <c r="I7" s="552"/>
       <c r="J7" s="142" t="s">
         <v>82</v>
       </c>
       <c r="K7" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="544"/>
+      <c r="L7" s="552"/>
     </row>
     <row r="8" spans="1:13" s="262" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="207">
@@ -15563,17 +15563,17 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="262" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="551">
+      <c r="A9" s="562">
         <v>1165</v>
       </c>
-      <c r="B9" s="557">
+      <c r="B9" s="560">
         <v>44013</v>
       </c>
-      <c r="C9" s="551" t="s">
+      <c r="C9" s="562" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="551"/>
-      <c r="E9" s="551" t="s">
+      <c r="D9" s="562"/>
+      <c r="E9" s="562" t="s">
         <v>161</v>
       </c>
       <c r="F9" s="303" t="s">
@@ -15599,11 +15599,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="262" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="552"/>
-      <c r="B10" s="558"/>
-      <c r="C10" s="552"/>
-      <c r="D10" s="552"/>
-      <c r="E10" s="552"/>
+      <c r="A10" s="563"/>
+      <c r="B10" s="561"/>
+      <c r="C10" s="563"/>
+      <c r="D10" s="563"/>
+      <c r="E10" s="563"/>
       <c r="F10" s="305" t="s">
         <v>152</v>
       </c>
@@ -15769,7 +15769,7 @@
       <c r="G16" s="139"/>
       <c r="H16" s="130"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="548"/>
+      <c r="J16" s="571"/>
       <c r="K16" s="131"/>
       <c r="L16" s="130"/>
     </row>
@@ -15783,7 +15783,7 @@
       <c r="G17" s="140"/>
       <c r="H17" s="132"/>
       <c r="I17" s="132"/>
-      <c r="J17" s="549"/>
+      <c r="J17" s="572"/>
       <c r="K17" s="133"/>
       <c r="L17" s="132"/>
     </row>
@@ -15797,7 +15797,7 @@
       <c r="G18" s="141"/>
       <c r="H18" s="134"/>
       <c r="I18" s="134"/>
-      <c r="J18" s="550"/>
+      <c r="J18" s="573"/>
       <c r="K18" s="135"/>
       <c r="L18" s="134"/>
     </row>
@@ -15928,19 +15928,19 @@
       <c r="L27" s="136"/>
     </row>
     <row r="28" spans="1:12" s="262" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="503">
+      <c r="A28" s="542">
         <v>607</v>
       </c>
-      <c r="B28" s="559">
+      <c r="B28" s="553">
         <v>44029</v>
       </c>
-      <c r="C28" s="503" t="s">
+      <c r="C28" s="542" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="503" t="s">
+      <c r="D28" s="542" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="503" t="s">
+      <c r="E28" s="542" t="s">
         <v>172</v>
       </c>
       <c r="F28" s="303" t="s">
@@ -15966,11 +15966,11 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="262" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="510"/>
-      <c r="B29" s="560"/>
-      <c r="C29" s="510"/>
-      <c r="D29" s="510"/>
-      <c r="E29" s="510"/>
+      <c r="A29" s="543"/>
+      <c r="B29" s="554"/>
+      <c r="C29" s="543"/>
+      <c r="D29" s="543"/>
+      <c r="E29" s="543"/>
       <c r="F29" s="304" t="s">
         <v>148</v>
       </c>
@@ -15994,11 +15994,11 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="262" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="504"/>
-      <c r="B30" s="561"/>
-      <c r="C30" s="504"/>
-      <c r="D30" s="504"/>
-      <c r="E30" s="504"/>
+      <c r="A30" s="545"/>
+      <c r="B30" s="555"/>
+      <c r="C30" s="545"/>
+      <c r="D30" s="545"/>
+      <c r="E30" s="545"/>
       <c r="F30" s="305" t="s">
         <v>160</v>
       </c>
@@ -16022,16 +16022,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="177" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="541" t="s">
+      <c r="A31" s="556" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="542"/>
-      <c r="C31" s="542"/>
-      <c r="D31" s="542"/>
-      <c r="E31" s="542"/>
-      <c r="F31" s="542"/>
-      <c r="G31" s="542"/>
-      <c r="H31" s="543"/>
+      <c r="B31" s="557"/>
+      <c r="C31" s="557"/>
+      <c r="D31" s="557"/>
+      <c r="E31" s="557"/>
+      <c r="F31" s="557"/>
+      <c r="G31" s="557"/>
+      <c r="H31" s="558"/>
       <c r="I31" s="178">
         <f>SUM(I8:I30)</f>
         <v>10995000</v>
@@ -16056,92 +16056,92 @@
       <c r="L32" s="184"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="539" t="s">
+      <c r="A33" s="559" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="539"/>
-      <c r="C33" s="539"/>
-      <c r="D33" s="539"/>
-      <c r="E33" s="539"/>
-      <c r="F33" s="539"/>
-      <c r="G33" s="539"/>
-      <c r="H33" s="539"/>
-      <c r="I33" s="539"/>
-      <c r="J33" s="539"/>
-      <c r="K33" s="539"/>
-      <c r="L33" s="539"/>
+      <c r="B33" s="559"/>
+      <c r="C33" s="559"/>
+      <c r="D33" s="559"/>
+      <c r="E33" s="559"/>
+      <c r="F33" s="559"/>
+      <c r="G33" s="559"/>
+      <c r="H33" s="559"/>
+      <c r="I33" s="559"/>
+      <c r="J33" s="559"/>
+      <c r="K33" s="559"/>
+      <c r="L33" s="559"/>
     </row>
     <row r="34" spans="1:12" s="118" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="540" t="s">
+      <c r="A34" s="551" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="546" t="s">
+      <c r="B34" s="570" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="540" t="s">
+      <c r="C34" s="551" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="540" t="s">
+      <c r="D34" s="551" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="540"/>
-      <c r="F34" s="545" t="s">
+      <c r="E34" s="551"/>
+      <c r="F34" s="569" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="545"/>
-      <c r="H34" s="545"/>
-      <c r="I34" s="545"/>
-      <c r="J34" s="545"/>
-      <c r="K34" s="545"/>
-      <c r="L34" s="545"/>
+      <c r="G34" s="569"/>
+      <c r="H34" s="569"/>
+      <c r="I34" s="569"/>
+      <c r="J34" s="569"/>
+      <c r="K34" s="569"/>
+      <c r="L34" s="569"/>
     </row>
     <row r="35" spans="1:12" s="118" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="540"/>
-      <c r="B35" s="546"/>
-      <c r="C35" s="540"/>
-      <c r="D35" s="540" t="s">
+      <c r="A35" s="551"/>
+      <c r="B35" s="570"/>
+      <c r="C35" s="551"/>
+      <c r="D35" s="551" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="540" t="s">
+      <c r="E35" s="551" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="540" t="s">
+      <c r="F35" s="551" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="540" t="s">
+      <c r="G35" s="551" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="544" t="s">
+      <c r="H35" s="552" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="544" t="s">
+      <c r="I35" s="552" t="s">
         <v>42</v>
       </c>
-      <c r="J35" s="547" t="s">
+      <c r="J35" s="565" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="547"/>
-      <c r="L35" s="544" t="s">
+      <c r="K35" s="565"/>
+      <c r="L35" s="552" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="540"/>
-      <c r="B36" s="546"/>
-      <c r="C36" s="540"/>
-      <c r="D36" s="540"/>
-      <c r="E36" s="540"/>
-      <c r="F36" s="540"/>
-      <c r="G36" s="540"/>
-      <c r="H36" s="544"/>
-      <c r="I36" s="544"/>
+      <c r="A36" s="551"/>
+      <c r="B36" s="570"/>
+      <c r="C36" s="551"/>
+      <c r="D36" s="551"/>
+      <c r="E36" s="551"/>
+      <c r="F36" s="551"/>
+      <c r="G36" s="551"/>
+      <c r="H36" s="552"/>
+      <c r="I36" s="552"/>
       <c r="J36" s="257" t="s">
         <v>82</v>
       </c>
       <c r="K36" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="L36" s="544"/>
+      <c r="L36" s="552"/>
     </row>
     <row r="37" spans="1:12" s="262" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="207">
@@ -16216,16 +16216,16 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="177" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="541" t="s">
+      <c r="A39" s="556" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="542"/>
-      <c r="C39" s="542"/>
-      <c r="D39" s="542"/>
-      <c r="E39" s="542"/>
-      <c r="F39" s="542"/>
-      <c r="G39" s="542"/>
-      <c r="H39" s="543"/>
+      <c r="B39" s="557"/>
+      <c r="C39" s="557"/>
+      <c r="D39" s="557"/>
+      <c r="E39" s="557"/>
+      <c r="F39" s="557"/>
+      <c r="G39" s="557"/>
+      <c r="H39" s="558"/>
       <c r="I39" s="178">
         <f>SUM(I37:I38)</f>
         <v>910000</v>
@@ -16306,92 +16306,92 @@
       <c r="L44" s="184"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="539" t="s">
+      <c r="A45" s="559" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="539"/>
-      <c r="C45" s="539"/>
-      <c r="D45" s="539"/>
-      <c r="E45" s="539"/>
-      <c r="F45" s="539"/>
-      <c r="G45" s="539"/>
-      <c r="H45" s="539"/>
-      <c r="I45" s="539"/>
-      <c r="J45" s="539"/>
-      <c r="K45" s="539"/>
-      <c r="L45" s="539"/>
+      <c r="B45" s="559"/>
+      <c r="C45" s="559"/>
+      <c r="D45" s="559"/>
+      <c r="E45" s="559"/>
+      <c r="F45" s="559"/>
+      <c r="G45" s="559"/>
+      <c r="H45" s="559"/>
+      <c r="I45" s="559"/>
+      <c r="J45" s="559"/>
+      <c r="K45" s="559"/>
+      <c r="L45" s="559"/>
     </row>
     <row r="46" spans="1:12" s="118" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="540" t="s">
+      <c r="A46" s="551" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="555" t="s">
+      <c r="B46" s="568" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="540" t="s">
+      <c r="C46" s="551" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="540" t="s">
+      <c r="D46" s="551" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="540"/>
-      <c r="F46" s="545" t="s">
+      <c r="E46" s="551"/>
+      <c r="F46" s="569" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="545"/>
-      <c r="H46" s="545"/>
-      <c r="I46" s="545"/>
-      <c r="J46" s="545"/>
-      <c r="K46" s="545"/>
-      <c r="L46" s="545"/>
+      <c r="G46" s="569"/>
+      <c r="H46" s="569"/>
+      <c r="I46" s="569"/>
+      <c r="J46" s="569"/>
+      <c r="K46" s="569"/>
+      <c r="L46" s="569"/>
     </row>
     <row r="47" spans="1:12" s="118" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="540"/>
-      <c r="B47" s="555"/>
-      <c r="C47" s="540"/>
-      <c r="D47" s="540" t="s">
+      <c r="A47" s="551"/>
+      <c r="B47" s="568"/>
+      <c r="C47" s="551"/>
+      <c r="D47" s="551" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="540" t="s">
+      <c r="E47" s="551" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="540" t="s">
+      <c r="F47" s="551" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="540" t="s">
+      <c r="G47" s="551" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="544" t="s">
+      <c r="H47" s="552" t="s">
         <v>32</v>
       </c>
-      <c r="I47" s="544" t="s">
+      <c r="I47" s="552" t="s">
         <v>42</v>
       </c>
-      <c r="J47" s="547" t="s">
+      <c r="J47" s="565" t="s">
         <v>34</v>
       </c>
-      <c r="K47" s="547"/>
-      <c r="L47" s="544" t="s">
+      <c r="K47" s="565"/>
+      <c r="L47" s="552" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="118" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="540"/>
-      <c r="B48" s="555"/>
-      <c r="C48" s="540"/>
-      <c r="D48" s="540"/>
-      <c r="E48" s="540"/>
-      <c r="F48" s="540"/>
-      <c r="G48" s="540"/>
-      <c r="H48" s="544"/>
-      <c r="I48" s="544"/>
+      <c r="A48" s="551"/>
+      <c r="B48" s="568"/>
+      <c r="C48" s="551"/>
+      <c r="D48" s="551"/>
+      <c r="E48" s="551"/>
+      <c r="F48" s="551"/>
+      <c r="G48" s="551"/>
+      <c r="H48" s="552"/>
+      <c r="I48" s="552"/>
       <c r="J48" s="270" t="s">
         <v>82</v>
       </c>
       <c r="K48" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="544"/>
+      <c r="L48" s="552"/>
     </row>
     <row r="49" spans="1:13" s="262" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="207">
@@ -16498,11 +16498,11 @@
       <c r="L52" s="276"/>
     </row>
     <row r="53" spans="1:13" s="185" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="539" t="s">
+      <c r="A53" s="559" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="539"/>
-      <c r="C53" s="539"/>
+      <c r="B53" s="559"/>
+      <c r="C53" s="559"/>
       <c r="D53" s="256"/>
       <c r="E53" s="256"/>
       <c r="F53" s="256"/>
@@ -16515,150 +16515,150 @@
       <c r="A54" s="256"/>
       <c r="B54" s="256"/>
       <c r="C54" s="256"/>
-      <c r="D54" s="553" t="s">
+      <c r="D54" s="566" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="553"/>
-      <c r="F54" s="553"/>
-      <c r="G54" s="553"/>
-      <c r="H54" s="553"/>
-      <c r="I54" s="553"/>
-      <c r="J54" s="554" t="s">
+      <c r="E54" s="566"/>
+      <c r="F54" s="566"/>
+      <c r="G54" s="566"/>
+      <c r="H54" s="566"/>
+      <c r="I54" s="566"/>
+      <c r="J54" s="567" t="s">
         <v>49</v>
       </c>
-      <c r="K54" s="554"/>
+      <c r="K54" s="567"/>
       <c r="L54" s="184"/>
     </row>
     <row r="55" spans="1:13" s="185" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="256"/>
       <c r="B55" s="256"/>
       <c r="C55" s="256"/>
-      <c r="D55" s="535" t="s">
+      <c r="D55" s="574" t="s">
         <v>139</v>
       </c>
-      <c r="E55" s="535"/>
-      <c r="F55" s="535"/>
-      <c r="G55" s="535"/>
-      <c r="H55" s="535"/>
-      <c r="I55" s="535"/>
-      <c r="J55" s="530">
+      <c r="E55" s="574"/>
+      <c r="F55" s="574"/>
+      <c r="G55" s="574"/>
+      <c r="H55" s="574"/>
+      <c r="I55" s="574"/>
+      <c r="J55" s="575">
         <f>8611127-5000000</f>
         <v>3611127</v>
       </c>
-      <c r="K55" s="530"/>
+      <c r="K55" s="575"/>
       <c r="L55" s="184"/>
     </row>
     <row r="56" spans="1:13" s="185" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="256"/>
       <c r="B56" s="256"/>
       <c r="C56" s="256"/>
-      <c r="D56" s="535" t="s">
+      <c r="D56" s="574" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="535"/>
-      <c r="F56" s="535"/>
-      <c r="G56" s="535"/>
-      <c r="H56" s="535"/>
-      <c r="I56" s="535"/>
-      <c r="J56" s="530">
+      <c r="E56" s="574"/>
+      <c r="F56" s="574"/>
+      <c r="G56" s="574"/>
+      <c r="H56" s="574"/>
+      <c r="I56" s="574"/>
+      <c r="J56" s="575">
         <f>L31</f>
         <v>5291550</v>
       </c>
-      <c r="K56" s="530"/>
+      <c r="K56" s="575"/>
       <c r="L56" s="184"/>
     </row>
     <row r="57" spans="1:13" s="185" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="217"/>
       <c r="B57" s="217"/>
       <c r="C57" s="217"/>
-      <c r="D57" s="535" t="s">
+      <c r="D57" s="574" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="535"/>
-      <c r="F57" s="535"/>
-      <c r="G57" s="535"/>
-      <c r="H57" s="535"/>
-      <c r="I57" s="535"/>
-      <c r="J57" s="530">
+      <c r="E57" s="574"/>
+      <c r="F57" s="574"/>
+      <c r="G57" s="574"/>
+      <c r="H57" s="574"/>
+      <c r="I57" s="574"/>
+      <c r="J57" s="575">
         <f>L39</f>
         <v>655200</v>
       </c>
-      <c r="K57" s="530"/>
+      <c r="K57" s="575"/>
       <c r="L57" s="184"/>
     </row>
     <row r="58" spans="1:13" s="185" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="256"/>
       <c r="B58" s="256"/>
       <c r="C58" s="256"/>
-      <c r="D58" s="536" t="s">
+      <c r="D58" s="580" t="s">
         <v>138</v>
       </c>
-      <c r="E58" s="537"/>
-      <c r="F58" s="537"/>
-      <c r="G58" s="537"/>
-      <c r="H58" s="537"/>
-      <c r="I58" s="538"/>
-      <c r="J58" s="531">
+      <c r="E58" s="581"/>
+      <c r="F58" s="581"/>
+      <c r="G58" s="581"/>
+      <c r="H58" s="581"/>
+      <c r="I58" s="582"/>
+      <c r="J58" s="576">
         <f>'Bảng lương'!K14</f>
         <v>5388461.538461539</v>
       </c>
-      <c r="K58" s="532"/>
+      <c r="K58" s="577"/>
       <c r="L58" s="184"/>
     </row>
     <row r="59" spans="1:13" s="185" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="308"/>
       <c r="B59" s="308"/>
       <c r="C59" s="308"/>
-      <c r="D59" s="536" t="s">
+      <c r="D59" s="580" t="s">
         <v>204</v>
       </c>
-      <c r="E59" s="537"/>
-      <c r="F59" s="537"/>
-      <c r="G59" s="537"/>
-      <c r="H59" s="537"/>
-      <c r="I59" s="538"/>
-      <c r="J59" s="531">
+      <c r="E59" s="581"/>
+      <c r="F59" s="581"/>
+      <c r="G59" s="581"/>
+      <c r="H59" s="581"/>
+      <c r="I59" s="582"/>
+      <c r="J59" s="576">
         <v>4064000</v>
       </c>
-      <c r="K59" s="532"/>
+      <c r="K59" s="577"/>
       <c r="L59" s="184"/>
     </row>
     <row r="60" spans="1:13" s="185" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="256"/>
       <c r="B60" s="256"/>
       <c r="C60" s="256"/>
-      <c r="D60" s="536" t="s">
+      <c r="D60" s="580" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="537"/>
-      <c r="F60" s="537"/>
-      <c r="G60" s="537"/>
-      <c r="H60" s="537"/>
-      <c r="I60" s="538"/>
-      <c r="J60" s="531">
+      <c r="E60" s="581"/>
+      <c r="F60" s="581"/>
+      <c r="G60" s="581"/>
+      <c r="H60" s="581"/>
+      <c r="I60" s="582"/>
+      <c r="J60" s="576">
         <f>L51</f>
         <v>445000</v>
       </c>
-      <c r="K60" s="532"/>
+      <c r="K60" s="577"/>
       <c r="L60" s="269"/>
     </row>
     <row r="61" spans="1:13" s="185" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="217"/>
       <c r="B61" s="217"/>
       <c r="C61" s="217"/>
-      <c r="D61" s="535" t="s">
+      <c r="D61" s="574" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="535"/>
-      <c r="F61" s="535"/>
-      <c r="G61" s="535"/>
-      <c r="H61" s="535"/>
-      <c r="I61" s="535"/>
-      <c r="J61" s="530">
+      <c r="E61" s="574"/>
+      <c r="F61" s="574"/>
+      <c r="G61" s="574"/>
+      <c r="H61" s="574"/>
+      <c r="I61" s="574"/>
+      <c r="J61" s="575">
         <f>J55+J56+J57+J60-J58-J59</f>
         <v>550415.46153846104</v>
       </c>
-      <c r="K61" s="530"/>
+      <c r="K61" s="575"/>
       <c r="L61" s="315">
         <f>J61+2500000</f>
         <v>3050415.461538461</v>
@@ -16679,14 +16679,14 @@
     </row>
     <row r="63" spans="1:13" s="185" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="322"/>
-      <c r="B63" s="534" t="s">
+      <c r="B63" s="579" t="s">
         <v>227</v>
       </c>
-      <c r="C63" s="534"/>
-      <c r="D63" s="534"/>
-      <c r="E63" s="534"/>
-      <c r="F63" s="534"/>
-      <c r="G63" s="534"/>
+      <c r="C63" s="579"/>
+      <c r="D63" s="579"/>
+      <c r="E63" s="579"/>
+      <c r="F63" s="579"/>
+      <c r="G63" s="579"/>
       <c r="H63" s="322"/>
       <c r="I63" s="184"/>
       <c r="L63" s="267"/>
@@ -16775,19 +16775,19 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="78"/>
-      <c r="B70" s="539" t="s">
+      <c r="B70" s="559" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="539"/>
-      <c r="D70" s="539"/>
+      <c r="C70" s="559"/>
+      <c r="D70" s="559"/>
       <c r="E70" s="78"/>
       <c r="F70" s="78"/>
       <c r="G70" s="78"/>
       <c r="H70" s="78"/>
-      <c r="I70" s="539" t="s">
+      <c r="I70" s="559" t="s">
         <v>111</v>
       </c>
-      <c r="J70" s="539"/>
+      <c r="J70" s="559"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="78"/>
@@ -16867,8 +16867,8 @@
       <c r="I77" s="181"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="533"/>
-      <c r="B78" s="533"/>
+      <c r="A78" s="578"/>
+      <c r="B78" s="578"/>
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
@@ -16878,8 +16878,8 @@
       <c r="H80" s="182"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="533"/>
-      <c r="B82" s="533"/>
+      <c r="A82" s="578"/>
+      <c r="B82" s="578"/>
       <c r="E82" s="39"/>
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
@@ -16887,32 +16887,42 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A45:L45"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="L47:L48"/>
@@ -16929,42 +16939,32 @@
     <mergeCell ref="F46:L46"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -16975,7 +16975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
@@ -17505,16 +17505,16 @@
       <c r="C1" s="144"/>
       <c r="D1" s="144"/>
       <c r="E1" s="144"/>
-      <c r="Z1" s="567" t="s">
+      <c r="Z1" s="601" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="568"/>
-      <c r="AB1" s="568"/>
-      <c r="AC1" s="568"/>
-      <c r="AD1" s="568"/>
-      <c r="AE1" s="568"/>
-      <c r="AF1" s="568"/>
-      <c r="AG1" s="569"/>
+      <c r="AA1" s="602"/>
+      <c r="AB1" s="602"/>
+      <c r="AC1" s="602"/>
+      <c r="AD1" s="602"/>
+      <c r="AE1" s="602"/>
+      <c r="AF1" s="602"/>
+      <c r="AG1" s="603"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="147" t="s">
@@ -17524,18 +17524,18 @@
       <c r="C2" s="148"/>
       <c r="D2" s="148"/>
       <c r="E2" s="148"/>
-      <c r="Z2" s="562" t="s">
+      <c r="Z2" s="584" t="s">
         <v>84</v>
       </c>
-      <c r="AA2" s="563"/>
-      <c r="AB2" s="563"/>
-      <c r="AC2" s="563"/>
-      <c r="AD2" s="563"/>
-      <c r="AE2" s="564"/>
-      <c r="AF2" s="565" t="s">
+      <c r="AA2" s="585"/>
+      <c r="AB2" s="585"/>
+      <c r="AC2" s="585"/>
+      <c r="AD2" s="585"/>
+      <c r="AE2" s="586"/>
+      <c r="AF2" s="587" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="566"/>
+      <c r="AG2" s="588"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="147" t="s">
@@ -17545,18 +17545,18 @@
       <c r="C3" s="74"/>
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
-      <c r="Z3" s="562" t="s">
+      <c r="Z3" s="584" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="563"/>
-      <c r="AB3" s="563"/>
-      <c r="AC3" s="563"/>
-      <c r="AD3" s="563"/>
-      <c r="AE3" s="564"/>
-      <c r="AF3" s="565" t="s">
+      <c r="AA3" s="585"/>
+      <c r="AB3" s="585"/>
+      <c r="AC3" s="585"/>
+      <c r="AD3" s="585"/>
+      <c r="AE3" s="586"/>
+      <c r="AF3" s="587" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="566"/>
+      <c r="AG3" s="588"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
@@ -17569,18 +17569,18 @@
       <c r="T4" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="562" t="s">
+      <c r="Z4" s="584" t="s">
         <v>90</v>
       </c>
-      <c r="AA4" s="563"/>
-      <c r="AB4" s="563"/>
-      <c r="AC4" s="563"/>
-      <c r="AD4" s="563"/>
-      <c r="AE4" s="564"/>
-      <c r="AF4" s="565" t="s">
+      <c r="AA4" s="585"/>
+      <c r="AB4" s="585"/>
+      <c r="AC4" s="585"/>
+      <c r="AD4" s="585"/>
+      <c r="AE4" s="586"/>
+      <c r="AF4" s="587" t="s">
         <v>91</v>
       </c>
-      <c r="AG4" s="566"/>
+      <c r="AG4" s="588"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="147" t="s">
@@ -17590,18 +17590,18 @@
       <c r="C5" s="74"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
-      <c r="Z5" s="562" t="s">
+      <c r="Z5" s="584" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="563"/>
-      <c r="AB5" s="563"/>
-      <c r="AC5" s="563"/>
-      <c r="AD5" s="563"/>
-      <c r="AE5" s="564"/>
-      <c r="AF5" s="565" t="s">
+      <c r="AA5" s="585"/>
+      <c r="AB5" s="585"/>
+      <c r="AC5" s="585"/>
+      <c r="AD5" s="585"/>
+      <c r="AE5" s="586"/>
+      <c r="AF5" s="587" t="s">
         <v>94</v>
       </c>
-      <c r="AG5" s="566"/>
+      <c r="AG5" s="588"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="149"/>
@@ -17611,93 +17611,93 @@
       <c r="E6" s="149"/>
     </row>
     <row r="7" spans="1:40" s="152" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="571" t="s">
+      <c r="A7" s="589" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="571"/>
-      <c r="C7" s="571"/>
-      <c r="D7" s="571"/>
-      <c r="E7" s="571"/>
-      <c r="F7" s="571"/>
-      <c r="G7" s="571"/>
-      <c r="H7" s="571"/>
-      <c r="I7" s="571"/>
-      <c r="J7" s="571"/>
-      <c r="K7" s="571"/>
-      <c r="L7" s="571"/>
-      <c r="M7" s="571"/>
-      <c r="N7" s="571"/>
-      <c r="O7" s="571"/>
-      <c r="P7" s="571"/>
-      <c r="Q7" s="571"/>
-      <c r="R7" s="571"/>
-      <c r="S7" s="571"/>
-      <c r="T7" s="571"/>
-      <c r="U7" s="571"/>
-      <c r="V7" s="571"/>
-      <c r="W7" s="571"/>
-      <c r="X7" s="571"/>
-      <c r="Y7" s="571"/>
-      <c r="Z7" s="571"/>
-      <c r="AA7" s="571"/>
-      <c r="AB7" s="571"/>
-      <c r="AC7" s="571"/>
-      <c r="AD7" s="571"/>
-      <c r="AE7" s="571"/>
-      <c r="AF7" s="571"/>
-      <c r="AG7" s="571"/>
-      <c r="AH7" s="571"/>
-      <c r="AI7" s="571"/>
-      <c r="AJ7" s="571"/>
-      <c r="AK7" s="571"/>
-      <c r="AL7" s="571"/>
-      <c r="AM7" s="571"/>
+      <c r="B7" s="589"/>
+      <c r="C7" s="589"/>
+      <c r="D7" s="589"/>
+      <c r="E7" s="589"/>
+      <c r="F7" s="589"/>
+      <c r="G7" s="589"/>
+      <c r="H7" s="589"/>
+      <c r="I7" s="589"/>
+      <c r="J7" s="589"/>
+      <c r="K7" s="589"/>
+      <c r="L7" s="589"/>
+      <c r="M7" s="589"/>
+      <c r="N7" s="589"/>
+      <c r="O7" s="589"/>
+      <c r="P7" s="589"/>
+      <c r="Q7" s="589"/>
+      <c r="R7" s="589"/>
+      <c r="S7" s="589"/>
+      <c r="T7" s="589"/>
+      <c r="U7" s="589"/>
+      <c r="V7" s="589"/>
+      <c r="W7" s="589"/>
+      <c r="X7" s="589"/>
+      <c r="Y7" s="589"/>
+      <c r="Z7" s="589"/>
+      <c r="AA7" s="589"/>
+      <c r="AB7" s="589"/>
+      <c r="AC7" s="589"/>
+      <c r="AD7" s="589"/>
+      <c r="AE7" s="589"/>
+      <c r="AF7" s="589"/>
+      <c r="AG7" s="589"/>
+      <c r="AH7" s="589"/>
+      <c r="AI7" s="589"/>
+      <c r="AJ7" s="589"/>
+      <c r="AK7" s="589"/>
+      <c r="AL7" s="589"/>
+      <c r="AM7" s="589"/>
       <c r="AN7" s="151"/>
     </row>
     <row r="9" spans="1:40" s="157" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="572" t="s">
+      <c r="A9" s="590" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="572" t="s">
+      <c r="B9" s="590" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="572" t="s">
+      <c r="C9" s="590" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="575" t="s">
+      <c r="D9" s="593" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="576"/>
-      <c r="F9" s="576"/>
-      <c r="G9" s="576"/>
-      <c r="H9" s="576"/>
-      <c r="I9" s="576"/>
-      <c r="J9" s="576"/>
-      <c r="K9" s="576"/>
-      <c r="L9" s="576"/>
-      <c r="M9" s="576"/>
-      <c r="N9" s="576"/>
-      <c r="O9" s="576"/>
-      <c r="P9" s="576"/>
-      <c r="Q9" s="576"/>
-      <c r="R9" s="576"/>
-      <c r="S9" s="576"/>
-      <c r="T9" s="576"/>
-      <c r="U9" s="576"/>
-      <c r="V9" s="576"/>
-      <c r="W9" s="576"/>
-      <c r="X9" s="576"/>
-      <c r="Y9" s="576"/>
-      <c r="Z9" s="576"/>
-      <c r="AA9" s="576"/>
-      <c r="AB9" s="576"/>
-      <c r="AC9" s="576"/>
-      <c r="AD9" s="576"/>
-      <c r="AE9" s="576"/>
-      <c r="AF9" s="576"/>
-      <c r="AG9" s="576"/>
-      <c r="AH9" s="577"/>
-      <c r="AI9" s="578" t="s">
+      <c r="E9" s="594"/>
+      <c r="F9" s="594"/>
+      <c r="G9" s="594"/>
+      <c r="H9" s="594"/>
+      <c r="I9" s="594"/>
+      <c r="J9" s="594"/>
+      <c r="K9" s="594"/>
+      <c r="L9" s="594"/>
+      <c r="M9" s="594"/>
+      <c r="N9" s="594"/>
+      <c r="O9" s="594"/>
+      <c r="P9" s="594"/>
+      <c r="Q9" s="594"/>
+      <c r="R9" s="594"/>
+      <c r="S9" s="594"/>
+      <c r="T9" s="594"/>
+      <c r="U9" s="594"/>
+      <c r="V9" s="594"/>
+      <c r="W9" s="594"/>
+      <c r="X9" s="594"/>
+      <c r="Y9" s="594"/>
+      <c r="Z9" s="594"/>
+      <c r="AA9" s="594"/>
+      <c r="AB9" s="594"/>
+      <c r="AC9" s="594"/>
+      <c r="AD9" s="594"/>
+      <c r="AE9" s="594"/>
+      <c r="AF9" s="594"/>
+      <c r="AG9" s="594"/>
+      <c r="AH9" s="595"/>
+      <c r="AI9" s="596" t="s">
         <v>99</v>
       </c>
       <c r="AJ9" s="153"/>
@@ -17707,9 +17707,9 @@
       <c r="AN9" s="156"/>
     </row>
     <row r="10" spans="1:40" s="157" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="573"/>
-      <c r="B10" s="573"/>
-      <c r="C10" s="573"/>
+      <c r="A10" s="591"/>
+      <c r="B10" s="591"/>
+      <c r="C10" s="591"/>
       <c r="D10" s="158">
         <v>1</v>
       </c>
@@ -17803,7 +17803,7 @@
       <c r="AH10" s="158">
         <v>31</v>
       </c>
-      <c r="AI10" s="578"/>
+      <c r="AI10" s="596"/>
       <c r="AJ10" s="159"/>
       <c r="AK10" s="155"/>
       <c r="AL10" s="155"/>
@@ -17811,9 +17811,9 @@
       <c r="AN10" s="156"/>
     </row>
     <row r="11" spans="1:40" s="164" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="574"/>
-      <c r="B11" s="574"/>
-      <c r="C11" s="574"/>
+      <c r="A11" s="592"/>
+      <c r="B11" s="592"/>
+      <c r="C11" s="592"/>
       <c r="D11" s="158" t="s">
         <v>105</v>
       </c>
@@ -17907,7 +17907,7 @@
       <c r="AH11" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="AI11" s="578"/>
+      <c r="AI11" s="596"/>
       <c r="AJ11" s="163"/>
       <c r="AN11" s="165"/>
     </row>
@@ -18328,10 +18328,10 @@
       <c r="B16" s="186" t="s">
         <v>374</v>
       </c>
-      <c r="C16" s="607" t="s">
+      <c r="C16" s="449" t="s">
         <v>375</v>
       </c>
-      <c r="D16" s="608" t="s">
+      <c r="D16" s="450" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="160" t="s">
@@ -18424,10 +18424,10 @@
       <c r="AN16" s="165"/>
     </row>
     <row r="17" spans="1:40" s="164" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="579" t="s">
+      <c r="A17" s="597" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="580"/>
+      <c r="B17" s="598"/>
       <c r="C17" s="167"/>
       <c r="D17" s="167"/>
       <c r="E17" s="168"/>
@@ -18469,39 +18469,39 @@
       <c r="AL17" s="171"/>
       <c r="AN17" s="165"/>
     </row>
-    <row r="19" spans="1:40" s="617" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="618" t="s">
+    <row r="19" spans="1:40" s="457" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="458" t="s">
         <v>378</v>
       </c>
-      <c r="C19" s="618"/>
-      <c r="D19" s="618"/>
-      <c r="G19" s="618"/>
-      <c r="N19" s="618" t="s">
+      <c r="C19" s="458"/>
+      <c r="D19" s="458"/>
+      <c r="G19" s="458"/>
+      <c r="N19" s="458" t="s">
         <v>107</v>
       </c>
-      <c r="AB19" s="622" t="s">
+      <c r="AB19" s="599" t="s">
         <v>379</v>
       </c>
-      <c r="AC19" s="622"/>
-      <c r="AD19" s="622"/>
-      <c r="AE19" s="622"/>
-    </row>
-    <row r="20" spans="1:40" s="619" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B20" s="620" t="s">
+      <c r="AC19" s="599"/>
+      <c r="AD19" s="599"/>
+      <c r="AE19" s="599"/>
+    </row>
+    <row r="20" spans="1:40" s="459" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B20" s="460" t="s">
         <v>380</v>
       </c>
-      <c r="C20" s="620"/>
-      <c r="D20" s="620"/>
-      <c r="G20" s="620"/>
-      <c r="N20" s="620" t="s">
+      <c r="C20" s="460"/>
+      <c r="D20" s="460"/>
+      <c r="G20" s="460"/>
+      <c r="N20" s="460" t="s">
         <v>380</v>
       </c>
-      <c r="AB20" s="623" t="s">
+      <c r="AB20" s="600" t="s">
         <v>380</v>
       </c>
-      <c r="AC20" s="623"/>
-      <c r="AD20" s="623"/>
-      <c r="AE20" s="623"/>
+      <c r="AC20" s="600"/>
+      <c r="AD20" s="600"/>
+      <c r="AE20" s="600"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="172"/>
@@ -18534,131 +18534,131 @@
       <c r="AN34" s="175"/>
     </row>
     <row r="35" spans="3:40" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="570"/>
-      <c r="H35" s="570"/>
-      <c r="I35" s="570"/>
-      <c r="J35" s="570"/>
-      <c r="K35" s="570"/>
-      <c r="L35" s="570"/>
-      <c r="M35" s="570"/>
-      <c r="N35" s="570"/>
-      <c r="O35" s="570"/>
-      <c r="P35" s="570"/>
-      <c r="Q35" s="570"/>
-      <c r="R35" s="570"/>
-      <c r="S35" s="570"/>
-      <c r="T35" s="570"/>
-      <c r="U35" s="570"/>
-      <c r="V35" s="570"/>
-      <c r="W35" s="570"/>
-      <c r="X35" s="570"/>
+      <c r="G35" s="583"/>
+      <c r="H35" s="583"/>
+      <c r="I35" s="583"/>
+      <c r="J35" s="583"/>
+      <c r="K35" s="583"/>
+      <c r="L35" s="583"/>
+      <c r="M35" s="583"/>
+      <c r="N35" s="583"/>
+      <c r="O35" s="583"/>
+      <c r="P35" s="583"/>
+      <c r="Q35" s="583"/>
+      <c r="R35" s="583"/>
+      <c r="S35" s="583"/>
+      <c r="T35" s="583"/>
+      <c r="U35" s="583"/>
+      <c r="V35" s="583"/>
+      <c r="W35" s="583"/>
+      <c r="X35" s="583"/>
       <c r="AN35" s="175"/>
     </row>
     <row r="36" spans="3:40" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="570"/>
-      <c r="H36" s="570"/>
-      <c r="I36" s="570"/>
-      <c r="J36" s="570"/>
-      <c r="K36" s="570"/>
-      <c r="L36" s="570"/>
-      <c r="M36" s="570"/>
-      <c r="N36" s="570"/>
-      <c r="O36" s="570"/>
-      <c r="P36" s="570"/>
-      <c r="Q36" s="570"/>
-      <c r="R36" s="570"/>
-      <c r="S36" s="570"/>
-      <c r="T36" s="570"/>
-      <c r="U36" s="570"/>
-      <c r="V36" s="570"/>
-      <c r="W36" s="570"/>
-      <c r="X36" s="570"/>
+      <c r="G36" s="583"/>
+      <c r="H36" s="583"/>
+      <c r="I36" s="583"/>
+      <c r="J36" s="583"/>
+      <c r="K36" s="583"/>
+      <c r="L36" s="583"/>
+      <c r="M36" s="583"/>
+      <c r="N36" s="583"/>
+      <c r="O36" s="583"/>
+      <c r="P36" s="583"/>
+      <c r="Q36" s="583"/>
+      <c r="R36" s="583"/>
+      <c r="S36" s="583"/>
+      <c r="T36" s="583"/>
+      <c r="U36" s="583"/>
+      <c r="V36" s="583"/>
+      <c r="W36" s="583"/>
+      <c r="X36" s="583"/>
       <c r="AN36" s="175"/>
     </row>
     <row r="37" spans="3:40" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="570"/>
-      <c r="H37" s="570"/>
-      <c r="I37" s="570"/>
-      <c r="J37" s="570"/>
-      <c r="K37" s="570"/>
-      <c r="L37" s="570"/>
-      <c r="M37" s="570"/>
-      <c r="N37" s="570"/>
-      <c r="O37" s="570"/>
-      <c r="P37" s="570"/>
-      <c r="Q37" s="570"/>
-      <c r="R37" s="570"/>
-      <c r="S37" s="570"/>
-      <c r="T37" s="570"/>
-      <c r="U37" s="570"/>
-      <c r="V37" s="570"/>
-      <c r="W37" s="570"/>
-      <c r="X37" s="570"/>
+      <c r="G37" s="583"/>
+      <c r="H37" s="583"/>
+      <c r="I37" s="583"/>
+      <c r="J37" s="583"/>
+      <c r="K37" s="583"/>
+      <c r="L37" s="583"/>
+      <c r="M37" s="583"/>
+      <c r="N37" s="583"/>
+      <c r="O37" s="583"/>
+      <c r="P37" s="583"/>
+      <c r="Q37" s="583"/>
+      <c r="R37" s="583"/>
+      <c r="S37" s="583"/>
+      <c r="T37" s="583"/>
+      <c r="U37" s="583"/>
+      <c r="V37" s="583"/>
+      <c r="W37" s="583"/>
+      <c r="X37" s="583"/>
       <c r="AN37" s="175"/>
     </row>
     <row r="38" spans="3:40" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="570"/>
-      <c r="H38" s="570"/>
-      <c r="I38" s="570"/>
-      <c r="J38" s="570"/>
-      <c r="K38" s="570"/>
-      <c r="L38" s="570"/>
-      <c r="M38" s="570"/>
-      <c r="N38" s="570"/>
-      <c r="O38" s="570"/>
-      <c r="P38" s="570"/>
-      <c r="Q38" s="570"/>
-      <c r="R38" s="570"/>
-      <c r="S38" s="570"/>
-      <c r="T38" s="570"/>
-      <c r="U38" s="570"/>
-      <c r="V38" s="570"/>
-      <c r="W38" s="570"/>
-      <c r="X38" s="570"/>
+      <c r="G38" s="583"/>
+      <c r="H38" s="583"/>
+      <c r="I38" s="583"/>
+      <c r="J38" s="583"/>
+      <c r="K38" s="583"/>
+      <c r="L38" s="583"/>
+      <c r="M38" s="583"/>
+      <c r="N38" s="583"/>
+      <c r="O38" s="583"/>
+      <c r="P38" s="583"/>
+      <c r="Q38" s="583"/>
+      <c r="R38" s="583"/>
+      <c r="S38" s="583"/>
+      <c r="T38" s="583"/>
+      <c r="U38" s="583"/>
+      <c r="V38" s="583"/>
+      <c r="W38" s="583"/>
+      <c r="X38" s="583"/>
       <c r="AN38" s="175"/>
     </row>
     <row r="39" spans="3:40" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="570"/>
-      <c r="H39" s="570"/>
-      <c r="I39" s="570"/>
-      <c r="J39" s="570"/>
-      <c r="K39" s="570"/>
-      <c r="L39" s="570"/>
-      <c r="M39" s="570"/>
-      <c r="N39" s="570"/>
-      <c r="O39" s="570"/>
-      <c r="P39" s="570"/>
-      <c r="Q39" s="570"/>
-      <c r="R39" s="570"/>
-      <c r="S39" s="570"/>
-      <c r="T39" s="570"/>
-      <c r="U39" s="570"/>
-      <c r="V39" s="570"/>
-      <c r="W39" s="570"/>
-      <c r="X39" s="570"/>
+      <c r="G39" s="583"/>
+      <c r="H39" s="583"/>
+      <c r="I39" s="583"/>
+      <c r="J39" s="583"/>
+      <c r="K39" s="583"/>
+      <c r="L39" s="583"/>
+      <c r="M39" s="583"/>
+      <c r="N39" s="583"/>
+      <c r="O39" s="583"/>
+      <c r="P39" s="583"/>
+      <c r="Q39" s="583"/>
+      <c r="R39" s="583"/>
+      <c r="S39" s="583"/>
+      <c r="T39" s="583"/>
+      <c r="U39" s="583"/>
+      <c r="V39" s="583"/>
+      <c r="W39" s="583"/>
+      <c r="X39" s="583"/>
       <c r="AN39" s="175"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="145"/>
       <c r="D40" s="145"/>
-      <c r="G40" s="570"/>
-      <c r="H40" s="570"/>
-      <c r="I40" s="570"/>
-      <c r="J40" s="570"/>
-      <c r="K40" s="570"/>
-      <c r="L40" s="570"/>
-      <c r="M40" s="570"/>
-      <c r="N40" s="570"/>
-      <c r="O40" s="570"/>
-      <c r="P40" s="570"/>
-      <c r="Q40" s="570"/>
-      <c r="R40" s="570"/>
-      <c r="S40" s="570"/>
-      <c r="T40" s="570"/>
-      <c r="U40" s="570"/>
-      <c r="V40" s="570"/>
-      <c r="W40" s="570"/>
-      <c r="X40" s="570"/>
+      <c r="G40" s="583"/>
+      <c r="H40" s="583"/>
+      <c r="I40" s="583"/>
+      <c r="J40" s="583"/>
+      <c r="K40" s="583"/>
+      <c r="L40" s="583"/>
+      <c r="M40" s="583"/>
+      <c r="N40" s="583"/>
+      <c r="O40" s="583"/>
+      <c r="P40" s="583"/>
+      <c r="Q40" s="583"/>
+      <c r="R40" s="583"/>
+      <c r="S40" s="583"/>
+      <c r="T40" s="583"/>
+      <c r="U40" s="583"/>
+      <c r="V40" s="583"/>
+      <c r="W40" s="583"/>
+      <c r="X40" s="583"/>
       <c r="AN40" s="145"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
@@ -18668,6 +18668,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -18680,13 +18687,6 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="AB19:AE19"/>
     <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -19541,40 +19541,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="245" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="616" t="s">
+      <c r="A1" s="610" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="616"/>
-      <c r="C1" s="616"/>
-      <c r="D1" s="616"/>
+      <c r="B1" s="610"/>
+      <c r="C1" s="610"/>
+      <c r="D1" s="610"/>
       <c r="E1" s="244"/>
-      <c r="F1" s="581" t="s">
+      <c r="F1" s="611" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="581"/>
-      <c r="H1" s="581"/>
-      <c r="I1" s="581"/>
-      <c r="J1" s="581"/>
-      <c r="K1" s="581"/>
-      <c r="L1" s="581"/>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611"/>
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
+      <c r="K1" s="611"/>
+      <c r="L1" s="611"/>
     </row>
     <row r="2" spans="1:16" s="245" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="615" t="s">
+      <c r="A2" s="612" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="615"/>
-      <c r="C2" s="615"/>
-      <c r="D2" s="615"/>
+      <c r="B2" s="612"/>
+      <c r="C2" s="612"/>
+      <c r="D2" s="612"/>
       <c r="E2" s="244"/>
-      <c r="F2" s="582" t="s">
+      <c r="F2" s="613" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="582"/>
-      <c r="H2" s="582"/>
-      <c r="I2" s="582"/>
-      <c r="J2" s="582"/>
-      <c r="K2" s="582"/>
-      <c r="L2" s="582"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="613"/>
+      <c r="J2" s="613"/>
+      <c r="K2" s="613"/>
+      <c r="L2" s="613"/>
     </row>
     <row r="3" spans="1:16" s="245" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="246"/>
@@ -19588,122 +19588,122 @@
       <c r="J3" s="247"/>
     </row>
     <row r="4" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="583" t="s">
+      <c r="A4" s="604" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="583"/>
-      <c r="C4" s="583"/>
-      <c r="D4" s="583"/>
-      <c r="E4" s="583"/>
-      <c r="F4" s="583"/>
-      <c r="G4" s="583"/>
-      <c r="H4" s="583"/>
-      <c r="I4" s="583"/>
-      <c r="J4" s="583"/>
-      <c r="K4" s="583"/>
-      <c r="L4" s="583"/>
-      <c r="M4" s="583"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="604"/>
+      <c r="E4" s="604"/>
+      <c r="F4" s="604"/>
+      <c r="G4" s="604"/>
+      <c r="H4" s="604"/>
+      <c r="I4" s="604"/>
+      <c r="J4" s="604"/>
+      <c r="K4" s="604"/>
+      <c r="L4" s="604"/>
+      <c r="M4" s="604"/>
     </row>
     <row r="5" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="583" t="s">
+      <c r="A5" s="604" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="583"/>
-      <c r="C5" s="583"/>
-      <c r="D5" s="583"/>
-      <c r="E5" s="583"/>
-      <c r="F5" s="583"/>
-      <c r="G5" s="583"/>
-      <c r="H5" s="583"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="583"/>
-      <c r="K5" s="583"/>
-      <c r="L5" s="583"/>
-      <c r="M5" s="583"/>
+      <c r="B5" s="604"/>
+      <c r="C5" s="604"/>
+      <c r="D5" s="604"/>
+      <c r="E5" s="604"/>
+      <c r="F5" s="604"/>
+      <c r="G5" s="604"/>
+      <c r="H5" s="604"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="604"/>
+      <c r="M5" s="604"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="584" t="s">
+      <c r="K6" s="605" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="584"/>
-      <c r="M6" s="584"/>
+      <c r="L6" s="605"/>
+      <c r="M6" s="605"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="603" t="s">
+      <c r="A7" s="445" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="604" t="s">
+      <c r="B7" s="446" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="603" t="s">
+      <c r="C7" s="445" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="604" t="s">
+      <c r="D7" s="446" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="605" t="s">
+      <c r="E7" s="447" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="603" t="s">
+      <c r="F7" s="445" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="603" t="s">
+      <c r="G7" s="445" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="603" t="s">
+      <c r="H7" s="445" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="603" t="s">
+      <c r="I7" s="445" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="603" t="s">
+      <c r="J7" s="445" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="603" t="s">
+      <c r="K7" s="445" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="606" t="s">
+      <c r="L7" s="448" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="603" t="s">
+      <c r="M7" s="445" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="602"/>
+      <c r="A8" s="444"/>
       <c r="B8" s="250"/>
       <c r="C8" s="250"/>
       <c r="D8" s="250"/>
-      <c r="E8" s="601"/>
-      <c r="F8" s="602" t="s">
+      <c r="E8" s="443"/>
+      <c r="F8" s="444" t="s">
         <v>373</v>
       </c>
-      <c r="G8" s="601" t="s">
+      <c r="G8" s="443" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="601" t="s">
+      <c r="H8" s="443" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="601" t="s">
+      <c r="I8" s="443" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="601" t="s">
+      <c r="J8" s="443" t="s">
         <v>83</v>
       </c>
       <c r="K8" s="440" t="s">
         <v>226</v>
       </c>
       <c r="L8" s="250"/>
-      <c r="M8" s="602"/>
+      <c r="M8" s="444"/>
     </row>
     <row r="9" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="600" t="s">
+      <c r="A9" s="606" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="600"/>
+      <c r="B9" s="606"/>
       <c r="C9" s="250"/>
       <c r="D9" s="250"/>
-      <c r="E9" s="601"/>
+      <c r="E9" s="443"/>
       <c r="F9" s="251">
         <f>SUM(F10:F12)</f>
         <v>27000000</v>
@@ -19729,16 +19729,16 @@
         <v>102717338</v>
       </c>
       <c r="L9" s="250"/>
-      <c r="M9" s="602"/>
+      <c r="M9" s="444"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="598">
+      <c r="A10" s="441">
         <v>1</v>
       </c>
-      <c r="B10" s="598" t="s">
+      <c r="B10" s="441" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="599" t="s">
+      <c r="C10" s="442" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="76">
@@ -19763,7 +19763,7 @@
         <v>62307692</v>
       </c>
       <c r="L10" s="75"/>
-      <c r="M10" s="598"/>
+      <c r="M10" s="441"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
@@ -19838,13 +19838,13 @@
       <c r="P12" s="128"/>
     </row>
     <row r="13" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="455" t="s">
+      <c r="A13" s="521" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="455"/>
-      <c r="C13" s="602"/>
+      <c r="B13" s="521"/>
+      <c r="C13" s="444"/>
       <c r="D13" s="224"/>
-      <c r="E13" s="614"/>
+      <c r="E13" s="456"/>
       <c r="F13" s="224">
         <f>SUM(F14:F15)</f>
         <v>8346153.8461538469</v>
@@ -19873,19 +19873,19 @@
       <c r="M13" s="250"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="609">
+      <c r="A14" s="451">
         <v>4</v>
       </c>
-      <c r="B14" s="609" t="s">
+      <c r="B14" s="451" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="610" t="s">
+      <c r="C14" s="452" t="s">
         <v>114</v>
       </c>
       <c r="D14" s="346">
         <v>5000000</v>
       </c>
-      <c r="E14" s="611">
+      <c r="E14" s="453">
         <f>'bảng chấm công'!AI13</f>
         <v>27.5</v>
       </c>
@@ -19897,15 +19897,15 @@
         <f>'Hỗ trợ vận chuyển'!E32</f>
         <v>100000</v>
       </c>
-      <c r="H14" s="612"/>
-      <c r="I14" s="612"/>
-      <c r="J14" s="612"/>
-      <c r="K14" s="612">
+      <c r="H14" s="454"/>
+      <c r="I14" s="454"/>
+      <c r="J14" s="454"/>
+      <c r="K14" s="454">
         <f>F14+G14-H14-I14+J14</f>
         <v>5388461.538461539</v>
       </c>
-      <c r="L14" s="612"/>
-      <c r="M14" s="609"/>
+      <c r="L14" s="454"/>
+      <c r="M14" s="451"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="53">
@@ -19920,7 +19920,7 @@
       <c r="D15" s="55">
         <v>3000000</v>
       </c>
-      <c r="E15" s="613">
+      <c r="E15" s="455">
         <f>'bảng chấm công'!AI16</f>
         <v>26.5</v>
       </c>
@@ -19945,11 +19945,11 @@
       <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="585" t="s">
+      <c r="A16" s="607" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="586"/>
-      <c r="C16" s="587"/>
+      <c r="B16" s="608"/>
+      <c r="C16" s="609"/>
       <c r="D16" s="251"/>
       <c r="E16" s="252"/>
       <c r="F16" s="251">
@@ -19980,42 +19980,42 @@
       <c r="M16" s="250"/>
     </row>
     <row r="18" spans="2:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="583"/>
-      <c r="C18" s="583"/>
-      <c r="D18" s="583"/>
+      <c r="B18" s="604"/>
+      <c r="C18" s="604"/>
+      <c r="D18" s="604"/>
       <c r="E18" s="225"/>
-      <c r="I18" s="583"/>
-      <c r="J18" s="583"/>
-      <c r="K18" s="583"/>
-      <c r="L18" s="583"/>
-    </row>
-    <row r="19" spans="2:12" s="617" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="618" t="s">
+      <c r="I18" s="604"/>
+      <c r="J18" s="604"/>
+      <c r="K18" s="604"/>
+      <c r="L18" s="604"/>
+    </row>
+    <row r="19" spans="2:12" s="457" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="458" t="s">
         <v>378</v>
       </c>
-      <c r="C19" s="618"/>
-      <c r="D19" s="618"/>
-      <c r="G19" s="618" t="s">
+      <c r="C19" s="458"/>
+      <c r="D19" s="458"/>
+      <c r="G19" s="458" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="618"/>
+      <c r="H19" s="458"/>
       <c r="J19" s="111"/>
-      <c r="L19" s="618" t="s">
+      <c r="L19" s="458" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="619" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B20" s="620" t="s">
+    <row r="20" spans="2:12" s="459" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B20" s="460" t="s">
         <v>380</v>
       </c>
-      <c r="C20" s="620"/>
-      <c r="D20" s="620"/>
-      <c r="G20" s="620" t="s">
+      <c r="C20" s="460"/>
+      <c r="D20" s="460"/>
+      <c r="G20" s="460" t="s">
         <v>380</v>
       </c>
-      <c r="H20" s="620"/>
-      <c r="J20" s="621"/>
-      <c r="L20" s="620" t="s">
+      <c r="H20" s="460"/>
+      <c r="J20" s="461"/>
+      <c r="L20" s="460" t="s">
         <v>380</v>
       </c>
     </row>
@@ -20029,6 +20029,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -20036,11 +20041,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -20066,32 +20066,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="230" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="588" t="s">
+      <c r="A1" s="614" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="588"/>
-      <c r="C1" s="588"/>
+      <c r="B1" s="614"/>
+      <c r="C1" s="614"/>
       <c r="D1" s="232"/>
       <c r="J1" s="231"/>
       <c r="K1" s="232"/>
     </row>
     <row r="2" spans="1:15" s="230" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="589" t="s">
+      <c r="A2" s="615" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="589"/>
-      <c r="C2" s="589"/>
+      <c r="B2" s="615"/>
+      <c r="C2" s="615"/>
       <c r="D2" s="232"/>
       <c r="J2" s="231"/>
       <c r="K2" s="232"/>
     </row>
     <row r="3" spans="1:15" s="230" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="514" t="s">
+      <c r="A3" s="525" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="514"/>
-      <c r="C3" s="514"/>
-      <c r="D3" s="514"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="525"/>
+      <c r="D3" s="525"/>
       <c r="E3" s="229"/>
       <c r="F3" s="229"/>
       <c r="G3" s="229"/>
@@ -20122,25 +20122,25 @@
       <c r="O4" s="229"/>
     </row>
     <row r="5" spans="1:15" s="230" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="594" t="s">
+      <c r="A5" s="620" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="596" t="s">
+      <c r="B5" s="622" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="594" t="s">
+      <c r="C5" s="620" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="593" t="s">
+      <c r="D5" s="619" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="593"/>
-      <c r="F5" s="593"/>
+      <c r="E5" s="619"/>
+      <c r="F5" s="619"/>
     </row>
     <row r="6" spans="1:15" s="230" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="595"/>
-      <c r="B6" s="597"/>
-      <c r="C6" s="595"/>
+      <c r="A6" s="621"/>
+      <c r="B6" s="623"/>
+      <c r="C6" s="621"/>
       <c r="D6" s="241" t="s">
         <v>124</v>
       </c>
@@ -20480,11 +20480,11 @@
       <c r="F31" s="239"/>
     </row>
     <row r="32" spans="1:6" s="243" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="590" t="s">
+      <c r="A32" s="616" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="591"/>
-      <c r="C32" s="592"/>
+      <c r="B32" s="617"/>
+      <c r="C32" s="618"/>
       <c r="D32" s="242">
         <f>SUM(D7:D31)</f>
         <v>60000</v>
